--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_simulations_data_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_simulations_data_new_model.xlsx
@@ -653,7 +653,7 @@
         <v>84.8921666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06271568328442623</v>
+        <v>0.06271568328442564</v>
       </c>
       <c r="P2" t="n">
         <v>5435.697811</v>
@@ -674,10 +674,10 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF2" t="n">
         <v>0.9467189536793187</v>
@@ -733,7 +733,7 @@
         <v>84.1482</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05425387094560019</v>
+        <v>0.05425387094560008</v>
       </c>
       <c r="P3" t="n">
         <v>5535.86913</v>
@@ -754,10 +754,10 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF3" t="n">
         <v>0.9467189536793187</v>
@@ -813,7 +813,7 @@
         <v>83.09859999999991</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0420998996642119</v>
+        <v>0.04209989966421171</v>
       </c>
       <c r="P4" t="n">
         <v>5618.95375</v>
@@ -834,10 +834,10 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF4" t="n">
         <v>0.9467189536793187</v>
@@ -893,7 +893,7 @@
         <v>82.8359333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03935158682452133</v>
+        <v>0.03935158682452136</v>
       </c>
       <c r="P5" t="n">
         <v>5701.639795</v>
@@ -914,10 +914,10 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF5" t="n">
         <v>0.9467189536793187</v>
@@ -984,7 +984,7 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>4.781088541127435</v>
+        <v>4.781088853603268</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
@@ -997,7 +997,7 @@
         <v>3.818799456909924</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1012737306740199</v>
+        <v>0.1012734181981871</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
@@ -1010,10 +1010,10 @@
         <v>0.1384848430900756</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF6" t="n">
         <v>0.9467189536793187</v>
@@ -1069,7 +1069,7 @@
         <v>82.8925666666666</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03949768345447513</v>
+        <v>0.03949768345447563</v>
       </c>
       <c r="P7" t="n">
         <v>5913.47974</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>4.697741631631595</v>
+        <v>4.697741830706358</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
@@ -1093,7 +1093,7 @@
         <v>3.951603851878139</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8100906578712062</v>
+        <v>0.8100904587964433</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
@@ -1106,10 +1106,10 @@
         <v>0.00269444812186137</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF7" t="n">
         <v>0.9467189536793187</v>
@@ -1165,7 +1165,7 @@
         <v>82.76066666666659</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03649110162013613</v>
+        <v>0.03649110162013602</v>
       </c>
       <c r="P8" t="n">
         <v>6006.010485</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>4.395400431961086</v>
+        <v>4.39540061360596</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
@@ -1189,7 +1189,7 @@
         <v>3.998822021010646</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3625146288987438</v>
+        <v>0.3625144472538695</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
@@ -1202,10 +1202,10 @@
         <v>0.07460467898935397</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF8" t="n">
         <v>0.9467189536793187</v>
@@ -1261,7 +1261,7 @@
         <v>81.1365</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0165534140438961</v>
+        <v>0.01655341404389599</v>
       </c>
       <c r="P9" t="n">
         <v>6091.723667</v>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>4.586406711816671</v>
+        <v>4.586407347582739</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
@@ -1285,7 +1285,7 @@
         <v>4.134721238645405</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.5527590851663211</v>
+        <v>-0.5527597209323893</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
@@ -1298,10 +1298,10 @@
         <v>-0.2780940386454045</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF9" t="n">
         <v>0.9467189536793187</v>
@@ -1357,7 +1357,7 @@
         <v>79.33409999999991</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.005581838420981811</v>
+        <v>-0.005581838420981533</v>
       </c>
       <c r="P10" t="n">
         <v>6191.911681</v>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>4.31877930363077</v>
+        <v>4.318779312847584</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
@@ -1381,7 +1381,7 @@
         <v>3.757634419476453</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.3254017099576387</v>
+        <v>-0.3254017191744536</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
@@ -1394,10 +1394,10 @@
         <v>0.1105349805235467</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF10" t="n">
         <v>0.9467189536793187</v>
@@ -1453,7 +1453,7 @@
         <v>79.5510666666666</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.002700295386993901</v>
+        <v>-0.002700295386993568</v>
       </c>
       <c r="P11" t="n">
         <v>6277.107758</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>3.937233629243288</v>
+        <v>3.937233876830175</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
@@ -1477,7 +1477,7 @@
         <v>3.855881948576216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.326000201761111</v>
+        <v>1.325999954174224</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
@@ -1490,10 +1490,10 @@
         <v>0.009442051423783848</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF11" t="n">
         <v>0.9467189536793187</v>
@@ -1549,7 +1549,7 @@
         <v>80.44580000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008400005988580261</v>
+        <v>0.008400005988580289</v>
       </c>
       <c r="P12" t="n">
         <v>6365.478142</v>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>4.38001673605711</v>
+        <v>4.380017159462025</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
@@ -1573,7 +1573,7 @@
         <v>3.828322673751298</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.12532017883232</v>
+        <v>-1.125320602237236</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
@@ -1586,10 +1586,10 @@
         <v>-0.1379085737512979</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF12" t="n">
         <v>0.9467189536793187</v>
@@ -1655,10 +1655,10 @@
         <v>8.770741742341135</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.5537446647306281</v>
+        <v>-0.5822286437620406</v>
       </c>
       <c r="T13" t="n">
-        <v>3.935551004172668</v>
+        <v>3.935551036050583</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
@@ -1671,7 +1671,7 @@
         <v>3.696615639804431</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.06455305134665146</v>
+        <v>-0.06455308322456643</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
@@ -1684,10 +1684,10 @@
         <v>-0.200997839804431</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF13" t="n">
         <v>0.9467189536793187</v>
@@ -1743,7 +1743,7 @@
         <v>79.7690333333333</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.002102468817488656</v>
+        <v>-0.002102468817489433</v>
       </c>
       <c r="P14" t="n">
         <v>6506.77527</v>
@@ -1753,10 +1753,10 @@
         <v>8.780599262245746</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.1975454566756467</v>
+        <v>-0.2883058413344535</v>
       </c>
       <c r="T14" t="n">
-        <v>3.535616874767286</v>
+        <v>3.535616599795469</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="n">
@@ -1769,7 +1769,7 @@
         <v>3.532879938692479</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2982782904278589</v>
+        <v>0.2982785653996758</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
@@ -1782,10 +1782,10 @@
         <v>0.07714976130752138</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF14" t="n">
         <v>0.9467189536793187</v>
@@ -1841,7 +1841,7 @@
         <v>80.68819999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007384376139654591</v>
+        <v>0.007384376139654814</v>
       </c>
       <c r="P15" t="n">
         <v>6586.491822</v>
@@ -1851,10 +1851,10 @@
         <v>8.792776137038503</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.398897079431793</v>
+        <v>-0.5455908430901883</v>
       </c>
       <c r="T15" t="n">
-        <v>3.502721270309486</v>
+        <v>3.502721405310273</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
@@ -1867,7 +1867,7 @@
         <v>3.587438762019007</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.9670550928152082</v>
+        <v>-0.9670552278159947</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
@@ -1880,10 +1880,10 @@
         <v>-0.0002649620190067203</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF15" t="n">
         <v>0.9467189536793187</v>
@@ -1939,7 +1939,7 @@
         <v>80.78529999999991</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006168246884808326</v>
+        <v>0.006168246884808076</v>
       </c>
       <c r="P16" t="n">
         <v>6660.179602</v>
@@ -1949,10 +1949,10 @@
         <v>8.803901730438092</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.2621220917521279</v>
+        <v>-0.4841386841868444</v>
       </c>
       <c r="T16" t="n">
-        <v>3.687212618432295</v>
+        <v>3.687213403677228</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
@@ -1965,7 +1965,7 @@
         <v>3.549614359917908</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.5400681381866947</v>
+        <v>-0.5400689234316278</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
@@ -1978,10 +1978,10 @@
         <v>-0.3414982599179082</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF16" t="n">
         <v>0.9467189536793187</v>
@@ -2037,7 +2037,7 @@
         <v>81.11076666666661</v>
       </c>
       <c r="O17" t="n">
-        <v>0.007185945110625092</v>
+        <v>0.007185945110625563</v>
       </c>
       <c r="P17" t="n">
         <v>6748.61883199999</v>
@@ -2047,10 +2047,10 @@
         <v>8.81709314544808</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.1835253397517067</v>
+        <v>-0.4881208058921544</v>
       </c>
       <c r="T17" t="n">
-        <v>3.080908850209007</v>
+        <v>3.080908163962821</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
@@ -2063,7 +2063,7 @@
         <v>3.268983178793757</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6632682536163008</v>
+        <v>0.6632689398624874</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
@@ -2076,10 +2076,10 @@
         <v>0.167422921206243</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF17" t="n">
         <v>0.9467189536793187</v>
@@ -2145,10 +2145,10 @@
         <v>8.82905304092893</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.08806457618976529</v>
+        <v>-0.4682524856333766</v>
       </c>
       <c r="T18" t="n">
-        <v>3.245499574216776</v>
+        <v>3.245499613419654</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
@@ -2161,7 +2161,7 @@
         <v>3.453796187560263</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.4639551399147339</v>
+        <v>0.4639551007118565</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
@@ -2174,10 +2174,10 @@
         <v>-0.4417290875602626</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF18" t="n">
         <v>0.9467189536793187</v>
@@ -2233,7 +2233,7 @@
         <v>81.2488</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003665533134439514</v>
+        <v>0.003665533134439458</v>
       </c>
       <c r="P19" t="n">
         <v>6915.28961</v>
@@ -2243,10 +2243,10 @@
         <v>8.841490124639066</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1206025678581579</v>
+        <v>-0.3222450186244805</v>
       </c>
       <c r="T19" t="n">
-        <v>3.403818181829535</v>
+        <v>3.403818100136052</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
@@ -2259,7 +2259,7 @@
         <v>3.006162699848992</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2715522399332011</v>
+        <v>0.2715523216266837</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
@@ -2272,10 +2272,10 @@
         <v>-0.006328799848992261</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF19" t="n">
         <v>0.9467189536793187</v>
@@ -2331,7 +2331,7 @@
         <v>81.217</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001699507379105292</v>
+        <v>0.001699507379104903</v>
       </c>
       <c r="P20" t="n">
         <v>7002.22222999999</v>
@@ -2341,10 +2341,10 @@
         <v>8.853982839085804</v>
       </c>
       <c r="S20" t="n">
-        <v>0.196993671089372</v>
+        <v>-0.2823277198521693</v>
       </c>
       <c r="T20" t="n">
-        <v>3.28538082630536</v>
+        <v>3.285380519203736</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="n">
@@ -2357,7 +2357,7 @@
         <v>3.0413546945786</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.2481604632664762</v>
+        <v>-0.2481601561648521</v>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
@@ -2370,10 +2370,10 @@
         <v>-0.1943040945785999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF20" t="n">
         <v>0.9467189536793187</v>
@@ -2429,7 +2429,7 @@
         <v>82.05063333333329</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01064562676844538</v>
+        <v>0.01064562676844594</v>
       </c>
       <c r="P21" t="n">
         <v>7087.128935</v>
@@ -2439,10 +2439,10 @@
         <v>8.866035591815356</v>
       </c>
       <c r="S21" t="n">
-        <v>0.00293383860636227</v>
+        <v>-0.4929900261996638</v>
       </c>
       <c r="T21" t="n">
-        <v>3.29889731475251</v>
+        <v>3.298897413057396</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
@@ -2455,7 +2455,7 @@
         <v>2.864285891253469</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.2845650392714854</v>
+        <v>-0.2845651375763714</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
@@ -2468,10 +2468,10 @@
         <v>0.1170439087465316</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF21" t="n">
         <v>0.9467189536793187</v>
@@ -2527,7 +2527,7 @@
         <v>82.50166666666659</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01535069131710021</v>
+        <v>0.01535069131710012</v>
       </c>
       <c r="P22" t="n">
         <v>7168.798556</v>
@@ -2537,10 +2537,10 @@
         <v>8.877493354141578</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.01457212136832118</v>
+        <v>-0.5200512719398789</v>
       </c>
       <c r="T22" t="n">
-        <v>3.169766515607772</v>
+        <v>3.169766787672193</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="n">
@@ -2553,7 +2553,7 @@
         <v>2.980419923026776</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.012497126127646</v>
+        <v>1.012496854063224</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
@@ -2566,10 +2566,10 @@
         <v>0.2196888769732244</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF22" t="n">
         <v>0.9467189536793187</v>
@@ -2625,7 +2625,7 @@
         <v>83.3348</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02462934945499295</v>
+        <v>0.02462934945499271</v>
       </c>
       <c r="P23" t="n">
         <v>7251.80655699999</v>
@@ -2635,10 +2635,10 @@
         <v>8.889005897084333</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.189897328435902</v>
+        <v>-0.697563166188932</v>
       </c>
       <c r="T23" t="n">
-        <v>3.262865306390811</v>
+        <v>3.262864741271204</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
@@ -2651,7 +2651,7 @@
         <v>3.103443547490752</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2874538591965572</v>
+        <v>0.2874544243161643</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
@@ -2664,10 +2664,10 @@
         <v>0.3896515525092483</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF23" t="n">
         <v>0.9467189536793187</v>
@@ -2723,7 +2723,7 @@
         <v>83.6331333333333</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02735876963912176</v>
+        <v>0.02735876963912134</v>
       </c>
       <c r="P24" t="n">
         <v>7343.291854</v>
@@ -2733,10 +2733,10 @@
         <v>8.901542502542194</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.2683937140774208</v>
+        <v>-0.7821950385526424</v>
       </c>
       <c r="T24" t="n">
-        <v>3.613716133577966</v>
+        <v>3.61371658602753</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
@@ -2749,7 +2749,7 @@
         <v>3.443264502443105</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.6790001080360488</v>
+        <v>-0.6790005604856133</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
@@ -2762,10 +2762,10 @@
         <v>0.03712819755689534</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF24" t="n">
         <v>0.9467189536793187</v>
@@ -2821,7 +2821,7 @@
         <v>84.5082666666666</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03649846760207165</v>
+        <v>0.03649846760207182</v>
       </c>
       <c r="P25" t="n">
         <v>7434.155584</v>
@@ -2831,10 +2831,10 @@
         <v>8.913840279344141</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.5256907196689046</v>
+        <v>-1.048356421826655</v>
       </c>
       <c r="T25" t="n">
-        <v>3.511538840704891</v>
+        <v>3.511538911999579</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="n">
@@ -2847,7 +2847,7 @@
         <v>3.422674869007015</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.17917071638755</v>
+        <v>-1.179170787682238</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
@@ -2860,10 +2860,10 @@
         <v>0.3923495309929854</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF25" t="n">
         <v>0.9467189536793187</v>
@@ -2919,7 +2919,7 @@
         <v>84.54096666666661</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03550715637493518</v>
+        <v>0.03550715637493496</v>
       </c>
       <c r="P26" t="n">
         <v>7526.245925</v>
@@ -2929,10 +2929,10 @@
         <v>8.926151647340212</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.495235445048984</v>
+        <v>-1.039749998327787</v>
       </c>
       <c r="T26" t="n">
-        <v>3.645595542145817</v>
+        <v>3.645595719730709</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="n">
@@ -2945,7 +2945,7 @@
         <v>3.749136790127632</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.749131039522287</v>
+        <v>-0.7491312171071791</v>
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
@@ -2958,10 +2958,10 @@
         <v>-0.1730713901276322</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF26" t="n">
         <v>0.9467189536793187</v>
@@ -3017,7 +3017,7 @@
         <v>83.9402666666666</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02701069526250777</v>
+        <v>0.02701069526250707</v>
       </c>
       <c r="P27" t="n">
         <v>7615.53858199999</v>
@@ -3027,10 +3027,10 @@
         <v>8.937945989289195</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.2672889048447709</v>
+        <v>-0.8406402583229915</v>
       </c>
       <c r="T27" t="n">
-        <v>3.113744072342403</v>
+        <v>3.113744361211061</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
@@ -3043,7 +3043,7 @@
         <v>3.558275753773451</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.2381026433547402</v>
+        <v>-0.2381029322233976</v>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
@@ -3056,10 +3056,10 @@
         <v>-0.5431327537734507</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF27" t="n">
         <v>0.9467189536793187</v>
@@ -3115,7 +3115,7 @@
         <v>83.81383333333331</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02397211931915333</v>
+        <v>0.02397211931915286</v>
       </c>
       <c r="P28" t="n">
         <v>7706.965289</v>
@@ -3125,10 +3125,10 @@
         <v>8.949879781940162</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.2092954173872938</v>
+        <v>-0.8089384394924014</v>
       </c>
       <c r="T28" t="n">
-        <v>2.688406574654406</v>
+        <v>2.688406201642995</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
@@ -3141,7 +3141,7 @@
         <v>3.099021969215006</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.4026860692786847</v>
+        <v>-0.4026856962672736</v>
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
@@ -3154,10 +3154,10 @@
         <v>0.0186912307849938</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF28" t="n">
         <v>0.9467189536793187</v>
@@ -3213,7 +3213,7 @@
         <v>83.4627666666666</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01834762527919764</v>
+        <v>0.0183476252791982</v>
       </c>
       <c r="P29" t="n">
         <v>7799.813229</v>
@@ -3223,10 +3223,10 @@
         <v>8.961855067390998</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.09182210449076512</v>
+        <v>-0.7168948803355885</v>
       </c>
       <c r="T29" t="n">
-        <v>3.282715030371854</v>
+        <v>3.282714679952144</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
@@ -3239,7 +3239,7 @@
         <v>3.139649774826098</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.009981643399406</v>
+        <v>-1.009981292979697</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
@@ -3252,10 +3252,10 @@
         <v>-0.3025964748260983</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF29" t="n">
         <v>0.9467189536793187</v>
@@ -3311,7 +3311,7 @@
         <v>82.9067666666666</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01044527139079232</v>
+        <v>0.0104452713907921</v>
       </c>
       <c r="P30" t="n">
         <v>7894.556729</v>
@@ -3321,10 +3321,10 @@
         <v>8.973928779325036</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1429680499982431</v>
+        <v>-0.5060698845042115</v>
       </c>
       <c r="T30" t="n">
-        <v>3.107874446960686</v>
+        <v>3.107874697437479</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="n">
@@ -3337,7 +3337,7 @@
         <v>2.879487684253086</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2771951205325185</v>
+        <v>0.2771948700557254</v>
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
@@ -3350,10 +3350,10 @@
         <v>0.0834444157469143</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF30" t="n">
         <v>0.9467189536793187</v>
@@ -3409,7 +3409,7 @@
         <v>83.5280666666666</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01628139722437094</v>
+        <v>0.01628139722437077</v>
       </c>
       <c r="P31" t="n">
         <v>7988.215804</v>
@@ -3419,10 +3419,10 @@
         <v>8.985722710194816</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01666493444407965</v>
+        <v>-0.6519039928227974</v>
       </c>
       <c r="T31" t="n">
-        <v>2.848167971852507</v>
+        <v>2.848167767838253</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
@@ -3435,7 +3435,7 @@
         <v>3.017266933053463</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.04899629679443063</v>
+        <v>-0.04899609278017669</v>
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
@@ -3448,10 +3448,10 @@
         <v>0.3473685669465372</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF31" t="n">
         <v>0.9467189536793187</v>
@@ -3507,7 +3507,7 @@
         <v>83.46243333333329</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01391021954435256</v>
+        <v>0.01391021954435268</v>
       </c>
       <c r="P32" t="n">
         <v>8079.980889</v>
@@ -3517,10 +3517,10 @@
         <v>8.997144786289571</v>
       </c>
       <c r="S32" t="n">
-        <v>0.09819955620997257</v>
+        <v>-0.5950858054181312</v>
       </c>
       <c r="T32" t="n">
-        <v>3.202668690750097</v>
+        <v>3.20266875032268</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
@@ -3533,7 +3533,7 @@
         <v>3.255452101456726</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.4229493734677829</v>
+        <v>-0.4229494330403658</v>
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
@@ -3546,10 +3546,10 @@
         <v>0.09660959854327444</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF32" t="n">
         <v>0.9467189536793187</v>
@@ -3605,7 +3605,7 @@
         <v>83.4842666666666</v>
       </c>
       <c r="O33" t="n">
-        <v>0.012762243994624</v>
+        <v>0.01276224399462333</v>
       </c>
       <c r="P33" t="n">
         <v>8193.5555</v>
@@ -3615,10 +3615,10 @@
         <v>9.011103209625388</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08190031235013677</v>
+        <v>-0.6271660539297604</v>
       </c>
       <c r="T33" t="n">
-        <v>3.311440224839975</v>
+        <v>3.311439714569561</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
@@ -3631,7 +3631,7 @@
         <v>3.303251344851564</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.5509047685626505</v>
+        <v>-0.5509042582922365</v>
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
@@ -3644,10 +3644,10 @@
         <v>-0.2627503448515642</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF33" t="n">
         <v>0.9467189536793187</v>
@@ -3703,7 +3703,7 @@
         <v>83.85153333333329</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01583904037423345</v>
+        <v>0.01583904037423337</v>
       </c>
       <c r="P34" t="n">
         <v>8317.35961299999</v>
@@ -3713,10 +3713,10 @@
         <v>9.026100129241019</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.06871975713985844</v>
+        <v>-0.7851881944163734</v>
       </c>
       <c r="T34" t="n">
-        <v>3.284756953818386</v>
+        <v>3.284757527675593</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
@@ -3729,7 +3729,7 @@
         <v>3.063420490495803</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.5431423827015736</v>
+        <v>-0.5431429565587802</v>
       </c>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
@@ -3742,10 +3742,10 @@
         <v>0.1941848095041969</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF34" t="n">
         <v>0.9467189536793187</v>
@@ -3801,7 +3801,7 @@
         <v>83.78206666666659</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01400509612058798</v>
+        <v>0.01400509612058812</v>
       </c>
       <c r="P35" t="n">
         <v>8412.556575000001</v>
@@ -3811,10 +3811,10 @@
         <v>9.037480699041812</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01289497320674758</v>
+        <v>-0.7108141424993001</v>
       </c>
       <c r="T35" t="n">
-        <v>3.320274932829961</v>
+        <v>3.320274708725032</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
@@ -3827,7 +3827,7 @@
         <v>3.190567871247938</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.05495067716583524</v>
+        <v>-0.05495045306090596</v>
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
@@ -3840,10 +3840,10 @@
         <v>0.1057075287520624</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF35" t="n">
         <v>0.9467189536793187</v>
@@ -3899,7 +3899,7 @@
         <v>84.2883666666666</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01918472661336512</v>
+        <v>0.0191847266133654</v>
       </c>
       <c r="P36" t="n">
         <v>8532.164782</v>
@@ -3909,10 +3909,10 @@
         <v>9.051598392813085</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.1860009760284738</v>
+        <v>-0.9020185919559365</v>
       </c>
       <c r="T36" t="n">
-        <v>3.28703919594955</v>
+        <v>3.287039005653317</v>
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="n">
@@ -3925,7 +3925,7 @@
         <v>3.219340085132041</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.5861511490348654</v>
+        <v>-0.586150958738632</v>
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
@@ -3938,10 +3938,10 @@
         <v>-0.07927628513204077</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF36" t="n">
         <v>0.9467189536793187</v>
@@ -3997,7 +3997,7 @@
         <v>84.7877</v>
       </c>
       <c r="O37" t="n">
-        <v>0.02455930762256742</v>
+        <v>0.02455930762256753</v>
       </c>
       <c r="P37" t="n">
         <v>8646.776124</v>
@@ -4007,10 +4007,10 @@
         <v>9.064941828027367</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.3152266262197096</v>
+        <v>-1.018126500932774</v>
       </c>
       <c r="T37" t="n">
-        <v>3.382269017809586</v>
+        <v>3.382269197654091</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="n">
@@ -4023,7 +4023,7 @@
         <v>3.12754951384948</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.3685957072291521</v>
+        <v>0.3685955273846475</v>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
@@ -4036,10 +4036,10 @@
         <v>-0.1335592138494794</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF37" t="n">
         <v>0.9467189536793187</v>
@@ -4095,7 +4095,7 @@
         <v>84.04039999999991</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01555638408651472</v>
+        <v>0.01555638408651486</v>
       </c>
       <c r="P38" t="n">
         <v>8748.052073000001</v>
@@ -4107,10 +4107,10 @@
         <v>9.076586334339527</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.08956222289149113</v>
+        <v>-0.7830904200060611</v>
       </c>
       <c r="T38" t="n">
-        <v>3.573158093781538</v>
+        <v>3.573157641780677</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="n">
@@ -4123,7 +4123,7 @@
         <v>2.958565736555726</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.3858902341105988</v>
+        <v>-0.385889782109738</v>
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
@@ -4136,10 +4136,10 @@
         <v>-0.01391753655572581</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF38" t="n">
         <v>0.9467189536793187</v>
@@ -4195,7 +4195,7 @@
         <v>82.9736666666666</v>
       </c>
       <c r="O39" t="n">
-        <v>0.003134424174405126</v>
+        <v>0.003134424174405293</v>
       </c>
       <c r="P39" t="n">
         <v>8860.628407</v>
@@ -4207,10 +4207,10 @@
         <v>9.089372967381944</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1778230086974055</v>
+        <v>-0.4957967764090888</v>
       </c>
       <c r="T39" t="n">
-        <v>3.438209890440257</v>
+        <v>3.438209645622545</v>
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
@@ -4223,7 +4223,7 @@
         <v>2.937292385893853</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.2761380875949673</v>
+        <v>-0.2761378427772549</v>
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
@@ -4236,10 +4236,10 @@
         <v>-0.02131518589385317</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF39" t="n">
         <v>0.9467189536793187</v>
@@ -4295,7 +4295,7 @@
         <v>82.2172666666666</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.005377337757641598</v>
+        <v>-0.005377337757641321</v>
       </c>
       <c r="P40" t="n">
         <v>8992.12097</v>
@@ -4307,10 +4307,10 @@
         <v>9.104104025112376</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3534663613132912</v>
+        <v>-0.2900715778340711</v>
       </c>
       <c r="T40" t="n">
-        <v>3.575693712642339</v>
+        <v>3.575693528349182</v>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
@@ -4323,7 +4323,7 @@
         <v>2.90464050068783</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6018899517910321</v>
+        <v>0.6018901360841893</v>
       </c>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
@@ -4336,10 +4336,10 @@
         <v>-0.1653857006878305</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF40" t="n">
         <v>0.9467189536793187</v>
@@ -4395,7 +4395,7 @@
         <v>82.18989999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.004925046254231624</v>
+        <v>-0.004925046254232152</v>
       </c>
       <c r="P41" t="n">
         <v>9113.593226999999</v>
@@ -4407,10 +4407,10 @@
         <v>9.117522339162235</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2391465683822758</v>
+        <v>-0.3606796589923331</v>
       </c>
       <c r="T41" t="n">
-        <v>3.303841960146826</v>
+        <v>3.303842180980261</v>
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
@@ -4423,7 +4423,7 @@
         <v>2.752851902559637</v>
       </c>
       <c r="Y41" t="n">
-        <v>-0.7148361578999238</v>
+        <v>-0.7148363787333594</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
@@ -4436,10 +4436,10 @@
         <v>-0.2512121025596366</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF41" t="n">
         <v>0.9467189536793187</v>
@@ -4495,7 +4495,7 @@
         <v>82.09196666666659</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.005269384407924349</v>
+        <v>-0.005269384407923516</v>
       </c>
       <c r="P42" t="n">
         <v>9241.463326999999</v>
@@ -4507,13 +4507,13 @@
         <v>9.131455520819671</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06780943458161708</v>
+        <v>-0.4850285225353864</v>
       </c>
       <c r="T42" t="n">
-        <v>3.198856787183797</v>
+        <v>3.198856203983138</v>
       </c>
       <c r="U42" t="n">
-        <v>5.444229053864837</v>
+        <v>5.123049040194782</v>
       </c>
       <c r="V42" t="n">
         <v>1.669190345746495</v>
@@ -4525,10 +4525,10 @@
         <v>2.525620495709362</v>
       </c>
       <c r="Y42" t="n">
-        <v>-1.653458857165842</v>
+        <v>-1.653458273965182</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.444229053864837</v>
+        <v>-0.1230490401947817</v>
       </c>
       <c r="AA42" t="n">
         <v>-0.6971364044298642</v>
@@ -4540,10 +4540,10 @@
         <v>0.2635335042906379</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF42" t="n">
         <v>0.9467189536793187</v>
@@ -4599,7 +4599,7 @@
         <v>81.9328666666666</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.006538005660378765</v>
+        <v>-0.006538005660378016</v>
       </c>
       <c r="P43" t="n">
         <v>9376.48514599999</v>
@@ -4611,13 +4611,13 @@
         <v>9.145960253865521</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06653532385831462</v>
+        <v>-0.4498754080882809</v>
       </c>
       <c r="T43" t="n">
-        <v>3.7361492709191</v>
+        <v>3.736149205304281</v>
       </c>
       <c r="U43" t="n">
-        <v>3.996726766745273</v>
+        <v>3.57640700066588</v>
       </c>
       <c r="V43" t="n">
         <v>3.344634718361595</v>
@@ -4629,10 +4629,10 @@
         <v>2.777229069440247</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.3559580294066649</v>
+        <v>0.3559580950214833</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.003273233254727</v>
+        <v>1.42359299933412</v>
       </c>
       <c r="AA43" t="n">
         <v>-0.4425663658927497</v>
@@ -4644,10 +4644,10 @@
         <v>0.159877430559753</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF43" t="n">
         <v>0.9467189536793187</v>
@@ -4703,7 +4703,7 @@
         <v>81.7611</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.008231106831093626</v>
+        <v>-0.008231106831094015</v>
       </c>
       <c r="P44" t="n">
         <v>9511.20703799999</v>
@@ -4715,13 +4715,13 @@
         <v>9.160226070513779</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08780162357699978</v>
+        <v>-0.3993460485653831</v>
       </c>
       <c r="T44" t="n">
-        <v>2.936047063640881</v>
+        <v>2.936047860192018</v>
       </c>
       <c r="U44" t="n">
-        <v>3.859283815567624</v>
+        <v>3.29425053967415</v>
       </c>
       <c r="V44" t="n">
         <v>4.604975640461413</v>
@@ -4733,10 +4733,10 @@
         <v>2.934785846120939</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.114620463530944</v>
+        <v>1.114619666979807</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.140716184432376</v>
+        <v>1.70574946032585</v>
       </c>
       <c r="AA44" t="n">
         <v>-0.2909733698363741</v>
@@ -4748,10 +4748,10 @@
         <v>0.1591262538790605</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF44" t="n">
         <v>0.9467189536793187</v>
@@ -4807,7 +4807,7 @@
         <v>82.27809999999999</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.001758530388170421</v>
+        <v>-0.001758530388169838</v>
       </c>
       <c r="P45" t="n">
         <v>9667.904345000001</v>
@@ -4819,13 +4819,13 @@
         <v>9.176566847794287</v>
       </c>
       <c r="S45" t="n">
-        <v>-0.138833220323936</v>
+        <v>-0.5932486840986315</v>
       </c>
       <c r="T45" t="n">
-        <v>3.081236428655181</v>
+        <v>3.081235324903551</v>
       </c>
       <c r="U45" t="n">
-        <v>6.294150691575446</v>
+        <v>5.842013437537014</v>
       </c>
       <c r="V45" t="n">
         <v>2.538256487606585</v>
@@ -4837,10 +4837,10 @@
         <v>3.059979494968776</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.9288222190962543</v>
+        <v>0.9288233228478848</v>
       </c>
       <c r="Z45" t="n">
-        <v>-1.294150691575446</v>
+        <v>-0.8420134375370143</v>
       </c>
       <c r="AA45" t="n">
         <v>-0.1615412361063129</v>
@@ -4852,10 +4852,10 @@
         <v>0.157385005031224</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF45" t="n">
         <v>0.9467189536793187</v>
@@ -4911,7 +4911,7 @@
         <v>82.1844</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.002692129904286134</v>
+        <v>-0.00269212990428605</v>
       </c>
       <c r="P46" t="n">
         <v>9837.79823</v>
@@ -4923,13 +4923,13 @@
         <v>9.19398720789512</v>
       </c>
       <c r="S46" t="n">
-        <v>-0.1517383381425463</v>
+        <v>-0.5801773670580762</v>
       </c>
       <c r="T46" t="n">
-        <v>4.448002938974962</v>
+        <v>4.448003055139115</v>
       </c>
       <c r="U46" t="n">
-        <v>4.209708051474395</v>
+        <v>3.732802275777898</v>
       </c>
       <c r="V46" t="n">
         <v>5.832821066654337</v>
@@ -4941,10 +4941,10 @@
         <v>3.232598882831228</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.5086899790903248</v>
+        <v>0.5086898629261718</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.7902919485256046</v>
+        <v>1.267197724222102</v>
       </c>
       <c r="AA46" t="n">
         <v>-0.6532313303330044</v>
@@ -4956,10 +4956,10 @@
         <v>0.09606291716877235</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF46" t="n">
         <v>0.9467189536793187</v>
@@ -5015,7 +5015,7 @@
         <v>82.3337333333333</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.0007071756052896561</v>
+        <v>-0.0007071756052898226</v>
       </c>
       <c r="P47" t="n">
         <v>10002.46425</v>
@@ -5027,13 +5027,13 @@
         <v>9.21058676661853</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.2483159212838457</v>
+        <v>-0.6492607015315123</v>
       </c>
       <c r="T47" t="n">
-        <v>4.529613855702261</v>
+        <v>4.529613962774786</v>
       </c>
       <c r="U47" t="n">
-        <v>6.44807296433907</v>
+        <v>6.075801088745838</v>
       </c>
       <c r="V47" t="n">
         <v>3.326733158183373</v>
@@ -5045,10 +5045,10 @@
         <v>3.315534769086514</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.1205061394019635</v>
+        <v>-0.1205062464744877</v>
       </c>
       <c r="Z47" t="n">
-        <v>-1.44807296433907</v>
+        <v>-1.075801088745838</v>
       </c>
       <c r="AA47" t="n">
         <v>-0.5295189617954748</v>
@@ -5060,10 +5060,10 @@
         <v>0.01074933091348562</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF47" t="n">
         <v>0.9467189536793187</v>
@@ -5119,7 +5119,7 @@
         <v>81.4840333333333</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.01069354998933392</v>
+        <v>-0.01069354998933422</v>
       </c>
       <c r="P48" t="n">
         <v>10160.78751</v>
@@ -5131,13 +5131,13 @@
         <v>9.226291228955436</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.06193546858886688</v>
+        <v>-0.4414899755322041</v>
       </c>
       <c r="T48" t="n">
-        <v>4.355275608331582</v>
+        <v>4.355276388205335</v>
       </c>
       <c r="U48" t="n">
-        <v>4.51139009723931</v>
+        <v>4.046548186324767</v>
       </c>
       <c r="V48" t="n">
         <v>3.323691425571156</v>
@@ -5149,10 +5149,10 @@
         <v>3.282761477332605</v>
       </c>
       <c r="Y48" t="n">
-        <v>-0.4764573351850041</v>
+        <v>-0.4764581150587572</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.4886099027606905</v>
+        <v>0.9534518136752332</v>
       </c>
       <c r="AA48" t="n">
         <v>-0.0848073325231562</v>
@@ -5164,10 +5164,10 @@
         <v>-0.2937448773326055</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF48" t="n">
         <v>0.9467189536793187</v>
@@ -5223,7 +5223,7 @@
         <v>80.5010666666666</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.02263730483866055</v>
+        <v>-0.0226373048386605</v>
       </c>
       <c r="P49" t="n">
         <v>10310.7019599999</v>
@@ -5235,13 +5235,13 @@
         <v>9.240937660047319</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1734917228572179</v>
+        <v>-0.1912747119647664</v>
       </c>
       <c r="T49" t="n">
-        <v>3.71844039147251</v>
+        <v>3.718439702273183</v>
       </c>
       <c r="U49" t="n">
-        <v>3.225873292783383</v>
+        <v>2.609357307524878</v>
       </c>
       <c r="V49" t="n">
         <v>2.662524851331054</v>
@@ -5253,10 +5253,10 @@
         <v>3.021424661235905</v>
       </c>
       <c r="Y49" t="n">
-        <v>-0.355057211709874</v>
+        <v>-0.3550565225105475</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.774126707216617</v>
+        <v>2.390642692475122</v>
       </c>
       <c r="AA49" t="n">
         <v>-0.3649883796304869</v>
@@ -5268,10 +5268,10 @@
         <v>-0.1453019612359054</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF49" t="n">
         <v>0.9467189536793187</v>
@@ -5327,7 +5327,7 @@
         <v>78.78026666666661</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.04407703719266198</v>
+        <v>-0.04407703719266123</v>
       </c>
       <c r="P50" t="n">
         <v>10469.67365</v>
@@ -5339,13 +5339,13 @@
         <v>9.256238133369237</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6193625410708535</v>
+        <v>0.2612816859915001</v>
       </c>
       <c r="T50" t="n">
-        <v>4.080042795388128</v>
+        <v>4.080042686634671</v>
       </c>
       <c r="U50" t="n">
-        <v>3.567646882604545</v>
+        <v>2.919489301573114</v>
       </c>
       <c r="V50" t="n">
         <v>3.011975305303965</v>
@@ -5357,10 +5357,10 @@
         <v>2.937992245457795</v>
       </c>
       <c r="Y50" t="n">
-        <v>-0.8708565269882955</v>
+        <v>-0.8708564182348377</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.432353117395455</v>
+        <v>2.080510698426886</v>
       </c>
       <c r="AA50" t="n">
         <v>0.4097735333594534</v>
@@ -5372,10 +5372,10 @@
         <v>-0.4393047454577954</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF50" t="n">
         <v>0.9467189536793187</v>
@@ -5443,13 +5443,13 @@
         <v>9.270390843117307</v>
       </c>
       <c r="S51" t="n">
-        <v>1.091339788756587</v>
+        <v>0.7523713921138551</v>
       </c>
       <c r="T51" t="n">
-        <v>3.269924442009251</v>
+        <v>3.26992498350032</v>
       </c>
       <c r="U51" t="n">
-        <v>4.488567263460849</v>
+        <v>3.8965126372994</v>
       </c>
       <c r="V51" t="n">
         <v>3.831504802904899</v>
@@ -5461,10 +5461,10 @@
         <v>2.5956040643929</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.3664642384917056</v>
+        <v>0.3664636970006372</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.5114327365391507</v>
+        <v>1.1034873627006</v>
       </c>
       <c r="AA51" t="n">
         <v>-0.2136169395264993</v>
@@ -5476,10 +5476,10 @@
         <v>0.2497010356070999</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF51" t="n">
         <v>0.9467189536793187</v>
@@ -5535,7 +5535,7 @@
         <v>75.39936666666659</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.08566288742247785</v>
+        <v>-0.08566288742247763</v>
       </c>
       <c r="P52" t="n">
         <v>10742.04928</v>
@@ -5547,13 +5547,13 @@
         <v>9.281921158054956</v>
       </c>
       <c r="S52" t="n">
-        <v>1.606276436536702</v>
+        <v>1.302795828352971</v>
       </c>
       <c r="T52" t="n">
-        <v>2.940336998321767</v>
+        <v>2.940336354471146</v>
       </c>
       <c r="U52" t="n">
-        <v>6.600269674891729</v>
+        <v>6.132697778316002</v>
       </c>
       <c r="V52" t="n">
         <v>0.8089107976243328</v>
@@ -5565,10 +5565,10 @@
         <v>2.79460006352064</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.663290978624433</v>
+        <v>0.6632916224750534</v>
       </c>
       <c r="Z52" t="n">
-        <v>-1.600269674891729</v>
+        <v>-1.132697778316002</v>
       </c>
       <c r="AA52" t="n">
         <v>0.0904712563798169</v>
@@ -5580,10 +5580,10 @@
         <v>-0.04557336352064034</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF52" t="n">
         <v>0.9467189536793187</v>
@@ -5639,7 +5639,7 @@
         <v>74.0767</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.1014605496515628</v>
+        <v>-0.1014605496515631</v>
       </c>
       <c r="P53" t="n">
         <v>10852.96509</v>
@@ -5651,13 +5651,13 @@
         <v>9.29219360181871</v>
       </c>
       <c r="S53" t="n">
-        <v>2.016782395222299</v>
+        <v>1.759685820273243</v>
       </c>
       <c r="T53" t="n">
-        <v>3.301359409941765</v>
+        <v>3.301359006517615</v>
       </c>
       <c r="U53" t="n">
-        <v>2.888119275579353</v>
+        <v>2.359599912672069</v>
       </c>
       <c r="V53" t="n">
         <v>-2.820287160130611</v>
@@ -5669,10 +5669,10 @@
         <v>2.537804335117233</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.2700928877787474</v>
+        <v>0.2700932912028975</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.111880724420647</v>
+        <v>2.640400087327931</v>
       </c>
       <c r="AA53" t="n">
         <v>1.245038992075556</v>
@@ -5684,10 +5684,10 @@
         <v>0.1015418648827668</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF53" t="n">
         <v>0.9467189536793187</v>
@@ -5743,7 +5743,7 @@
         <v>74.1950333333333</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.09816327659679658</v>
+        <v>-0.09816327659679616</v>
       </c>
       <c r="P54" t="n">
         <v>10960.51666</v>
@@ -5755,13 +5755,13 @@
         <v>9.302054699901877</v>
       </c>
       <c r="S54" t="n">
-        <v>1.943520931968979</v>
+        <v>1.743774969402943</v>
       </c>
       <c r="T54" t="n">
-        <v>3.143264799168394</v>
+        <v>3.143265193282765</v>
       </c>
       <c r="U54" t="n">
-        <v>6.890453296240008</v>
+        <v>6.481833627761223</v>
       </c>
       <c r="V54" t="n">
         <v>3.160196435441799</v>
@@ -5773,10 +5773,10 @@
         <v>2.647217447437495</v>
       </c>
       <c r="Y54" t="n">
-        <v>-0.04419008283793069</v>
+        <v>-0.0441904769523016</v>
       </c>
       <c r="Z54" t="n">
-        <v>-1.890453296240008</v>
+        <v>-1.481833627761223</v>
       </c>
       <c r="AA54" t="n">
         <v>-0.687583897755951</v>
@@ -5788,10 +5788,10 @@
         <v>0.0574376525625051</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF54" t="n">
         <v>0.9467189536793187</v>
@@ -5847,7 +5847,7 @@
         <v>75.10120000000001</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.08431597048849415</v>
+        <v>-0.08431597048849448</v>
       </c>
       <c r="P55" t="n">
         <v>11069.774</v>
@@ -5859,13 +5859,13 @@
         <v>9.311973609956794</v>
       </c>
       <c r="S55" t="n">
-        <v>1.65932329186699</v>
+        <v>1.522523255230766</v>
       </c>
       <c r="T55" t="n">
-        <v>3.291925619956156</v>
+        <v>3.291925234783163</v>
       </c>
       <c r="U55" t="n">
-        <v>4.679253047817938</v>
+        <v>4.238617001384665</v>
       </c>
       <c r="V55" t="n">
         <v>3.430503930158531</v>
@@ -5877,10 +5877,10 @@
         <v>2.7426694456933</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.6576402036413116</v>
+        <v>0.6576405888143046</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.3207469521820618</v>
+        <v>0.7613829986153346</v>
       </c>
       <c r="AA55" t="n">
         <v>-0.9730820707960905</v>
@@ -5892,10 +5892,10 @@
         <v>-0.01230084569330048</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF55" t="n">
         <v>0.9467189536793187</v>
@@ -5951,7 +5951,7 @@
         <v>75.4846666666666</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.07759982507170893</v>
+        <v>-0.07759982507170904</v>
       </c>
       <c r="P56" t="n">
         <v>11192.4432299999</v>
@@ -5963,13 +5963,13 @@
         <v>9.322994117955721</v>
       </c>
       <c r="S56" t="n">
-        <v>1.394848632076093</v>
+        <v>1.31584425688696</v>
       </c>
       <c r="T56" t="n">
-        <v>3.43792224814825</v>
+        <v>3.437922609134179</v>
       </c>
       <c r="U56" t="n">
-        <v>2.835008555731617</v>
+        <v>2.123167604111729</v>
       </c>
       <c r="V56" t="n">
         <v>2.712503279878192</v>
@@ -5981,10 +5981,10 @@
         <v>2.72222873512478</v>
       </c>
       <c r="Y56" t="n">
-        <v>-1.695000100566001</v>
+        <v>-1.695000461551931</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.164991444268383</v>
+        <v>2.876832395888271</v>
       </c>
       <c r="AA56" t="n">
         <v>-0.04878644388736619</v>
@@ -5996,10 +5996,10 @@
         <v>-0.5047031351247804</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF56" t="n">
         <v>0.9467189536793187</v>
@@ -6055,7 +6055,7 @@
         <v>75.5209</v>
       </c>
       <c r="O57" t="n">
-        <v>-0.07540536666281561</v>
+        <v>-0.07540536666281616</v>
       </c>
       <c r="P57" t="n">
         <v>11326.62543</v>
@@ -6067,13 +6067,13 @@
         <v>9.334911465880204</v>
       </c>
       <c r="S57" t="n">
-        <v>1.196578819158332</v>
+        <v>1.17234372593556</v>
       </c>
       <c r="T57" t="n">
-        <v>2.757240151183152</v>
+        <v>2.757240020811109</v>
       </c>
       <c r="U57" t="n">
-        <v>3.721277947869552</v>
+        <v>2.940146420433885</v>
       </c>
       <c r="V57" t="n">
         <v>1.986124615872852</v>
@@ -6085,10 +6085,10 @@
         <v>2.299782780351607</v>
       </c>
       <c r="Y57" t="n">
-        <v>-1.455014367276644</v>
+        <v>-1.455014236904602</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.278722052130448</v>
+        <v>2.059853579566115</v>
       </c>
       <c r="AA57" t="n">
         <v>0.2201688982478647</v>
@@ -6100,10 +6100,10 @@
         <v>0.02762631964839324</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF57" t="n">
         <v>0.9467189536793187</v>
@@ -6159,7 +6159,7 @@
         <v>76.10363333333331</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.06608023572504251</v>
+        <v>-0.06608023572504179</v>
       </c>
       <c r="P58" t="n">
         <v>11451.72941</v>
@@ -6171,13 +6171,13 @@
         <v>9.34589603775164</v>
       </c>
       <c r="S58" t="n">
-        <v>1.034601334400193</v>
+        <v>1.059311878256978</v>
       </c>
       <c r="T58" t="n">
-        <v>2.563273219102153</v>
+        <v>2.563273736476522</v>
       </c>
       <c r="U58" t="n">
-        <v>7.062020721500754</v>
+        <v>6.468717879950996</v>
       </c>
       <c r="V58" t="n">
         <v>6.344037519400456</v>
@@ -6189,10 +6189,10 @@
         <v>2.454492066537687</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.747113318694365</v>
+        <v>1.747112801319996</v>
       </c>
       <c r="Z58" t="n">
-        <v>-2.062020721500754</v>
+        <v>-1.468717879950996</v>
       </c>
       <c r="AA58" t="n">
         <v>-1.750057572641492</v>
@@ -6204,10 +6204,10 @@
         <v>-0.3761056665376876</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF58" t="n">
         <v>0.9467189536793187</v>
@@ -6263,7 +6263,7 @@
         <v>75.6479333333333</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.07036240617077816</v>
+        <v>-0.07036240617077857</v>
       </c>
       <c r="P59" t="n">
         <v>11562.50054</v>
@@ -6275,13 +6275,13 @@
         <v>9.355522428523383</v>
       </c>
       <c r="S59" t="n">
-        <v>1.10960961795235</v>
+        <v>1.174306041907192</v>
       </c>
       <c r="T59" t="n">
-        <v>2.305802988539171</v>
+        <v>2.305802848529016</v>
       </c>
       <c r="U59" t="n">
-        <v>6.775055067576657</v>
+        <v>6.270559087185378</v>
       </c>
       <c r="V59" t="n">
         <v>-1.937565296193825</v>
@@ -6293,10 +6293,10 @@
         <v>1.981327035785652</v>
       </c>
       <c r="Y59" t="n">
-        <v>-0.1679037249869144</v>
+        <v>-0.1679035849767594</v>
       </c>
       <c r="Z59" t="n">
-        <v>-1.775055067576657</v>
+        <v>-1.270559087185378</v>
       </c>
       <c r="AA59" t="n">
         <v>0.1936933242693766</v>
@@ -6308,10 +6308,10 @@
         <v>-0.002512835785651646</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF59" t="n">
         <v>0.9467189536793187</v>
@@ -6367,7 +6367,7 @@
         <v>76.2010333333333</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.06153126956160548</v>
+        <v>-0.06153126956160557</v>
       </c>
       <c r="P60" t="n">
         <v>11699.595</v>
@@ -6379,13 +6379,13 @@
         <v>9.367309504802106</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9155134080974942</v>
+        <v>1.023825969471317</v>
       </c>
       <c r="T60" t="n">
-        <v>2.504076616418498</v>
+        <v>2.504075955726626</v>
       </c>
       <c r="U60" t="n">
-        <v>7.059006541369984</v>
+        <v>6.668986528149347</v>
       </c>
       <c r="V60" t="n">
         <v>4.573249379352736</v>
@@ -6397,10 +6397,10 @@
         <v>2.035839912358173</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.315581055522959</v>
+        <v>1.31558171621483</v>
       </c>
       <c r="Z60" t="n">
-        <v>-2.059006541369984</v>
+        <v>-1.668986528149347</v>
       </c>
       <c r="AA60" t="n">
         <v>-0.2277422197577064</v>
@@ -6412,10 +6412,10 @@
         <v>0.3607764876418273</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF60" t="n">
         <v>0.9467189536793187</v>
@@ -6471,7 +6471,7 @@
         <v>76.95026666666659</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.05017226024803012</v>
+        <v>-0.05017226024803104</v>
       </c>
       <c r="P61" t="n">
         <v>11843.26613</v>
@@ -6483,13 +6483,13 @@
         <v>9.379514725971168</v>
       </c>
       <c r="S61" t="n">
-        <v>0.5453773622874512</v>
+        <v>0.7026550705429511</v>
       </c>
       <c r="T61" t="n">
-        <v>2.948999344988069</v>
+        <v>2.949000036843417</v>
       </c>
       <c r="U61" t="n">
-        <v>5.386712002557867</v>
+        <v>5.013683687440027</v>
       </c>
       <c r="V61" t="n">
         <v>0.7597776158955369</v>
@@ -6501,10 +6501,10 @@
         <v>2.365947125269299</v>
       </c>
       <c r="Y61" t="n">
-        <v>-0.8426227028730313</v>
+        <v>-0.8426233947283794</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.386712002557867</v>
+        <v>-0.01368368744002701</v>
       </c>
       <c r="AA61" t="n">
         <v>0.1036873713194311</v>
@@ -6516,10 +6516,10 @@
         <v>-0.0005678252692988828</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF61" t="n">
         <v>0.9467189536793187</v>
@@ -6575,7 +6575,7 @@
         <v>77.5055333333333</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.04143732079160944</v>
+        <v>-0.04143732079160972</v>
       </c>
       <c r="P62" t="n">
         <v>12002.11569</v>
@@ -6587,13 +6587,13 @@
         <v>9.392838220729796</v>
       </c>
       <c r="S62" t="n">
-        <v>0.2187299500495272</v>
+        <v>0.4213043046661406</v>
       </c>
       <c r="T62" t="n">
-        <v>2.682156135582606</v>
+        <v>2.682155541160646</v>
       </c>
       <c r="U62" t="n">
-        <v>5.442889368348804</v>
+        <v>5.151724351934278</v>
       </c>
       <c r="V62" t="n">
         <v>3.11254547608449</v>
@@ -6605,10 +6605,10 @@
         <v>2.292208716351865</v>
       </c>
       <c r="Y62" t="n">
-        <v>-0.5868134709471811</v>
+        <v>-0.5868128765252218</v>
       </c>
       <c r="Z62" t="n">
-        <v>-0.442889368348804</v>
+        <v>-0.1517243519342779</v>
       </c>
       <c r="AA62" t="n">
         <v>0.3227950169373646</v>
@@ -6620,10 +6620,10 @@
         <v>-0.120523116351865</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF62" t="n">
         <v>0.9467189536793187</v>
@@ -6679,7 +6679,7 @@
         <v>77.96996666666659</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.03380133570405874</v>
+        <v>-0.03380133570405836</v>
       </c>
       <c r="P63" t="n">
         <v>12174.96017</v>
@@ -6691,13 +6691,13 @@
         <v>9.407136676487534</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.0523982594358992</v>
+        <v>0.1948000080956681</v>
       </c>
       <c r="T63" t="n">
-        <v>2.656969989327242</v>
+        <v>2.656970513895297</v>
       </c>
       <c r="U63" t="n">
-        <v>7.96484952094341</v>
+        <v>7.828484614079396</v>
       </c>
       <c r="V63" t="n">
         <v>3.457012359524319</v>
@@ -6709,10 +6709,10 @@
         <v>2.309086372633459</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.2581912737092384</v>
+        <v>0.2581907491411841</v>
       </c>
       <c r="Z63" t="n">
-        <v>-2.298183013222463</v>
+        <v>-2.161818106358449</v>
       </c>
       <c r="AA63" t="n">
         <v>0.3728041314436661</v>
@@ -6724,10 +6724,10 @@
         <v>0.2582818273665413</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE63" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF63" t="n">
         <v>0.9467189536793187</v>
@@ -6783,7 +6783,7 @@
         <v>78.429</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.02631681154897514</v>
+        <v>-0.02631681154897531</v>
       </c>
       <c r="P64" t="n">
         <v>12330.28374</v>
@@ -6795,13 +6795,13 @@
         <v>9.419813608059064</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.2529755892727865</v>
+        <v>0.03370378033424277</v>
       </c>
       <c r="T64" t="n">
-        <v>2.386632187945041</v>
+        <v>2.386631990770418</v>
       </c>
       <c r="U64" t="n">
-        <v>5.680010028450787</v>
+        <v>5.465451482212024</v>
       </c>
       <c r="V64" t="n">
         <v>2.099888655723062</v>
@@ -6813,10 +6813,10 @@
         <v>2.521207484635839</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.9191717520123452</v>
+        <v>0.9191719491869677</v>
       </c>
       <c r="Z64" t="n">
-        <v>-1.01334352072984</v>
+        <v>-0.7987849744910767</v>
       </c>
       <c r="AA64" t="n">
         <v>-0.1986439883776807</v>
@@ -6828,10 +6828,10 @@
         <v>-0.165341884635839</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF64" t="n">
         <v>0.9467189536793187</v>
@@ -6887,7 +6887,7 @@
         <v>79.4703333333333</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.01156137828439885</v>
+        <v>-0.01156137828439835</v>
       </c>
       <c r="P65" t="n">
         <v>12505.21626</v>
@@ -6899,13 +6899,13 @@
         <v>9.433901137044629</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.7411401941900405</v>
+        <v>-0.4074457684964725</v>
       </c>
       <c r="T65" t="n">
-        <v>2.812609050937937</v>
+        <v>2.812608671215712</v>
       </c>
       <c r="U65" t="n">
-        <v>6.2801032567553</v>
+        <v>6.15348320972972</v>
       </c>
       <c r="V65" t="n">
         <v>4.5439791340402</v>
@@ -6917,10 +6917,10 @@
         <v>2.35138084671288</v>
       </c>
       <c r="Y65" t="n">
-        <v>-0.7602700180002704</v>
+        <v>-0.7602696382780452</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.053229758686594</v>
+        <v>2.179849805712174</v>
       </c>
       <c r="AA65" t="n">
         <v>-0.5596735837317794</v>
@@ -6932,10 +6932,10 @@
         <v>-0.004438646712880079</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF65" t="n">
         <v>0.9467189536793187</v>
@@ -6991,7 +6991,7 @@
         <v>80.4238666666666</v>
       </c>
       <c r="O66" t="n">
-        <v>0.001646917936446002</v>
+        <v>0.001646917936445363</v>
       </c>
       <c r="P66" t="n">
         <v>12683.22687</v>
@@ -7003,13 +7003,13 @@
         <v>9.44803568063117</v>
       </c>
       <c r="S66" t="n">
-        <v>-1.156983320010607</v>
+        <v>-0.7872617033581222</v>
       </c>
       <c r="T66" t="n">
-        <v>2.694865040863326</v>
+        <v>2.69486580277827</v>
       </c>
       <c r="U66" t="n">
-        <v>4.657323053852945</v>
+        <v>4.747590035979403</v>
       </c>
       <c r="V66" t="n">
         <v>1.658923308399293</v>
@@ -7021,10 +7021,10 @@
         <v>2.426867780144895</v>
       </c>
       <c r="Y66" t="n">
-        <v>-0.2458777991100396</v>
+        <v>-0.2458785610249836</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.3426769461470549</v>
+        <v>0.2524099640205968</v>
       </c>
       <c r="AA66" t="n">
         <v>1.251692444748701</v>
@@ -7036,10 +7036,10 @@
         <v>0.04803621985510498</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE66" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF66" t="n">
         <v>0.9467189536793187</v>
@@ -7095,7 +7095,7 @@
         <v>80.6027333333333</v>
       </c>
       <c r="O67" t="n">
-        <v>0.004908230606916142</v>
+        <v>0.004908230606915504</v>
       </c>
       <c r="P67" t="n">
         <v>12850.6202</v>
@@ -7107,13 +7107,13 @@
         <v>9.461147353750107</v>
       </c>
       <c r="S67" t="n">
-        <v>-1.317726246153123</v>
+        <v>-0.9283970656043463</v>
       </c>
       <c r="T67" t="n">
-        <v>2.569744493167305</v>
+        <v>2.569743984978996</v>
       </c>
       <c r="U67" t="n">
-        <v>2.169642146403485</v>
+        <v>2.149648212113949</v>
       </c>
       <c r="V67" t="n">
         <v>1.729771795155043</v>
@@ -7125,10 +7125,10 @@
         <v>2.397402557598518</v>
       </c>
       <c r="Y67" t="n">
-        <v>-0.5403134528865778</v>
+        <v>-0.5403129446982691</v>
       </c>
       <c r="Z67" t="n">
-        <v>2.497024361317462</v>
+        <v>2.517018295606999</v>
       </c>
       <c r="AA67" t="n">
         <v>-0.4888194037623184</v>
@@ -7140,10 +7140,10 @@
         <v>-0.1024413575985181</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE67" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF67" t="n">
         <v>0.9467189536793187</v>
@@ -7199,7 +7199,7 @@
         <v>79.9097666666666</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.002508652551410862</v>
+        <v>-0.002508652551411222</v>
       </c>
       <c r="P68" t="n">
         <v>13042.58989</v>
@@ -7211,13 +7211,13 @@
         <v>9.475975426956371</v>
       </c>
       <c r="S68" t="n">
-        <v>-1.233364430501872</v>
+        <v>-0.8306838228693945</v>
       </c>
       <c r="T68" t="n">
-        <v>2.263677440531843</v>
+        <v>2.263677473483724</v>
       </c>
       <c r="U68" t="n">
-        <v>6.19233926974773</v>
+        <v>6.414381628142549</v>
       </c>
       <c r="V68" t="n">
         <v>10.83042387669887</v>
@@ -7229,10 +7229,10 @@
         <v>2.527794504919464</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.1581261229505846</v>
+        <v>0.1581260899987034</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.140993745694165</v>
+        <v>1.918951387299345</v>
       </c>
       <c r="AA68" t="n">
         <v>-0.4349343528895346</v>
@@ -7244,10 +7244,10 @@
         <v>-0.1741380049194636</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF68" t="n">
         <v>0.9467189536793187</v>
@@ -7303,7 +7303,7 @@
         <v>80.2658666666666</v>
       </c>
       <c r="O69" t="n">
-        <v>0.002935875383643705</v>
+        <v>0.002935875383643427</v>
       </c>
       <c r="P69" t="n">
         <v>13223.02454</v>
@@ -7315,13 +7315,13 @@
         <v>9.489714872412319</v>
       </c>
       <c r="S69" t="n">
-        <v>-1.409589661941452</v>
+        <v>-0.9908218673864087</v>
       </c>
       <c r="T69" t="n">
-        <v>2.726971247450884</v>
+        <v>2.726971130637599</v>
       </c>
       <c r="U69" t="n">
-        <v>6.1569588518287</v>
+        <v>6.684775509638349</v>
       </c>
       <c r="V69" t="n">
         <v>-1.541539422663256</v>
@@ -7333,10 +7333,10 @@
         <v>2.349420489064477</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.08005781600755979</v>
+        <v>0.08005793282084506</v>
       </c>
       <c r="Z69" t="n">
-        <v>-0.4902923441077531</v>
+        <v>-1.018109001917402</v>
       </c>
       <c r="AA69" t="n">
         <v>0.130603215475837</v>
@@ -7348,10 +7348,10 @@
         <v>0.2208307109355232</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF69" t="n">
         <v>0.9467189536793187</v>
@@ -7407,7 +7407,7 @@
         <v>80.6599333333333</v>
       </c>
       <c r="O70" t="n">
-        <v>0.008535494087355211</v>
+        <v>0.008535494087354684</v>
       </c>
       <c r="P70" t="n">
         <v>13387.82541</v>
@@ -7419,13 +7419,13 @@
         <v>9.502101021463394</v>
       </c>
       <c r="S70" t="n">
-        <v>-1.547874207591559</v>
+        <v>-1.122603376208195</v>
       </c>
       <c r="T70" t="n">
-        <v>2.923654847101821</v>
+        <v>2.923655518024481</v>
       </c>
       <c r="U70" t="n">
-        <v>4.636020296786281</v>
+        <v>5.287873775052661</v>
       </c>
       <c r="V70" t="n">
         <v>2.244197429920225</v>
@@ -7437,10 +7437,10 @@
         <v>2.421787830681616</v>
       </c>
       <c r="Y70" t="n">
-        <v>-0.136187120664323</v>
+        <v>-0.1361877915869831</v>
       </c>
       <c r="Z70" t="n">
-        <v>-0.3026868045072284</v>
+        <v>-0.9545402827736078</v>
       </c>
       <c r="AA70" t="n">
         <v>0.9735172569854122</v>
@@ -7452,10 +7452,10 @@
         <v>0.05233756931838451</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE70" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF70" t="n">
         <v>0.9467189536793187</v>
@@ -7511,7 +7511,7 @@
         <v>80.72783333333329</v>
       </c>
       <c r="O71" t="n">
-        <v>0.01025268224643838</v>
+        <v>0.01025268224643824</v>
       </c>
       <c r="P71" t="n">
         <v>13574.2659199999</v>
@@ -7523,13 +7523,13 @@
         <v>9.515931067465207</v>
       </c>
       <c r="S71" t="n">
-        <v>-1.604426177289176</v>
+        <v>-1.172958096610397</v>
       </c>
       <c r="T71" t="n">
-        <v>2.61688710492074</v>
+        <v>2.616886094657127</v>
       </c>
       <c r="U71" t="n">
-        <v>3.839200938848703</v>
+        <v>4.639786319153107</v>
       </c>
       <c r="V71" t="n">
         <v>3.359546292881051</v>
@@ -7541,10 +7541,10 @@
         <v>2.557192152121705</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.54518469792455</v>
+        <v>0.5451857081881633</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.4941325534303496</v>
+        <v>-0.3064528268740547</v>
       </c>
       <c r="AA71" t="n">
         <v>0.8248007062147713</v>
@@ -7556,10 +7556,10 @@
         <v>0.1086365478782954</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE71" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF71" t="n">
         <v>0.9467189536793187</v>
@@ -7615,7 +7615,7 @@
         <v>80.5891666666666</v>
       </c>
       <c r="O72" t="n">
-        <v>0.009432874096562571</v>
+        <v>0.009432874096562349</v>
       </c>
       <c r="P72" t="n">
         <v>13735.82524</v>
@@ -7627,13 +7627,13 @@
         <v>9.527762679724098</v>
       </c>
       <c r="S72" t="n">
-        <v>-1.525963233073328</v>
+        <v>-1.094097530519384</v>
       </c>
       <c r="T72" t="n">
-        <v>3.296546998246745</v>
+        <v>3.296547267103362</v>
       </c>
       <c r="U72" t="n">
-        <v>3.862264054230093</v>
+        <v>4.453052953054871</v>
       </c>
       <c r="V72" t="n">
         <v>2.123500864833236</v>
@@ -7645,10 +7645,10 @@
         <v>2.621201170891029</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.2311583753858835</v>
+        <v>0.2311581065292656</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.137735945769907</v>
+        <v>-0.453052953054871</v>
       </c>
       <c r="AA72" t="n">
         <v>-0.1462353458254491</v>
@@ -7660,10 +7660,10 @@
         <v>-0.1037208708910291</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF72" t="n">
         <v>0.9467189536793187</v>
@@ -7719,7 +7719,7 @@
         <v>80.2484</v>
       </c>
       <c r="O73" t="n">
-        <v>0.006209309417731568</v>
+        <v>0.006209309417731734</v>
       </c>
       <c r="P73" t="n">
         <v>13848.42834</v>
@@ -7731,13 +7731,13 @@
         <v>9.535927027920136</v>
       </c>
       <c r="S73" t="n">
-        <v>-1.328434828151562</v>
+        <v>-0.8991899286490984</v>
       </c>
       <c r="T73" t="n">
-        <v>2.729181092687842</v>
+        <v>2.729180829911742</v>
       </c>
       <c r="U73" t="n">
-        <v>3.231910551690472</v>
+        <v>3.694101950165361</v>
       </c>
       <c r="V73" t="n">
         <v>1.394564723415668</v>
@@ -7749,10 +7749,10 @@
         <v>2.438995068482475</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.3806499261640077</v>
+        <v>0.3806501889401077</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.101422940588581</v>
+        <v>0.6392315421136914</v>
       </c>
       <c r="AA73" t="n">
         <v>-0.8032859756913797</v>
@@ -7764,10 +7764,10 @@
         <v>-0.09219946848247451</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF73" t="n">
         <v>0.9467189536793187</v>
@@ -7823,7 +7823,7 @@
         <v>80.52006666666659</v>
       </c>
       <c r="O74" t="n">
-        <v>0.01063378493492184</v>
+        <v>0.0106337849349212</v>
       </c>
       <c r="P74" t="n">
         <v>14045.73165</v>
@@ -7835,13 +7835,13 @@
         <v>9.550073831453163</v>
       </c>
       <c r="S74" t="n">
-        <v>-1.423833510366266</v>
+        <v>-0.9872853746803677</v>
       </c>
       <c r="T74" t="n">
-        <v>2.8794612524631</v>
+        <v>2.879461029285953</v>
       </c>
       <c r="U74" t="n">
-        <v>2.117562413731433</v>
+        <v>2.550723142680836</v>
       </c>
       <c r="V74" t="n">
         <v>4.362083636143095</v>
@@ -7853,10 +7853,10 @@
         <v>2.43790810868361</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.9741330999905267</v>
+        <v>0.9741333231676732</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.549104332408093</v>
+        <v>1.11594360345869</v>
       </c>
       <c r="AA74" t="n">
         <v>-0.07592256295442912</v>
@@ -7868,10 +7868,10 @@
         <v>0.02153339131638976</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF74" t="n">
         <v>0.9467189536793187</v>
@@ -7927,7 +7927,7 @@
         <v>81.0006333333333</v>
       </c>
       <c r="O75" t="n">
-        <v>0.01745752697623448</v>
+        <v>0.01745752697623457</v>
       </c>
       <c r="P75" t="n">
         <v>14212.10318</v>
@@ -7939,13 +7939,13 @@
         <v>9.561849217176484</v>
       </c>
       <c r="S75" t="n">
-        <v>-1.563352642975623</v>
+        <v>-1.123124899365756</v>
       </c>
       <c r="T75" t="n">
-        <v>3.488251251549448</v>
+        <v>3.488251602955934</v>
       </c>
       <c r="U75" t="n">
-        <v>4.001951479353273</v>
+        <v>4.587906067979174</v>
       </c>
       <c r="V75" t="n">
         <v>4.271112529823798</v>
@@ -7957,10 +7957,10 @@
         <v>2.536593051321125</v>
       </c>
       <c r="Y75" t="n">
-        <v>-0.4318849010779413</v>
+        <v>-0.4318852524844274</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.3313820129257801</v>
+        <v>-0.2545725757001209</v>
       </c>
       <c r="AA75" t="n">
         <v>-0.4972252024712436</v>
@@ -7972,10 +7972,10 @@
         <v>0.1352265486788746</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE75" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF75" t="n">
         <v>0.9467189536793187</v>
@@ -8031,7 +8031,7 @@
         <v>80.82413333333329</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01636477545356474</v>
+        <v>0.01636477545356452</v>
       </c>
       <c r="P76" t="n">
         <v>14361.15186</v>
@@ -8043,13 +8043,13 @@
         <v>9.57228205247724</v>
       </c>
       <c r="S76" t="n">
-        <v>-1.481683293265972</v>
+        <v>-1.041784552931234</v>
       </c>
       <c r="T76" t="n">
-        <v>3.154304617635075</v>
+        <v>3.15430470660076</v>
       </c>
       <c r="U76" t="n">
-        <v>3.025043672426112</v>
+        <v>3.699310785423594</v>
       </c>
       <c r="V76" t="n">
         <v>2.771567183700834</v>
@@ -8061,10 +8061,10 @@
         <v>2.615354398510171</v>
       </c>
       <c r="Y76" t="n">
-        <v>-0.121114727853024</v>
+        <v>-0.1211148168187095</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.6416230737134141</v>
+        <v>-0.03264403928406745</v>
       </c>
       <c r="AA76" t="n">
         <v>-0.2452288188056806</v>
@@ -8076,10 +8076,10 @@
         <v>-0.2038326985101708</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF76" t="n">
         <v>0.9467189536793187</v>
@@ -8135,7 +8135,7 @@
         <v>80.9775666666666</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01946002524582813</v>
+        <v>0.01946002524582829</v>
       </c>
       <c r="P77" t="n">
         <v>14491.58066</v>
@@ -8147,13 +8147,13 @@
         <v>9.581323115631644</v>
       </c>
       <c r="S77" t="n">
-        <v>-1.473605372663069</v>
+        <v>-1.029780555064941</v>
       </c>
       <c r="T77" t="n">
-        <v>2.83458069454809</v>
+        <v>2.834580963395661</v>
       </c>
       <c r="U77" t="n">
-        <v>2.962592335389149</v>
+        <v>3.492594163992803</v>
       </c>
       <c r="V77" t="n">
         <v>5.265133269630637</v>
@@ -8165,10 +8165,10 @@
         <v>2.504680979782324</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.1757815855906881</v>
+        <v>0.1757813167431177</v>
       </c>
       <c r="Z77" t="n">
-        <v>2.704074172331798</v>
+        <v>2.174072343728144</v>
       </c>
       <c r="AA77" t="n">
         <v>0.2550594851378785</v>
@@ -8180,10 +8180,10 @@
         <v>-0.3576382797823237</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE77" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF77" t="n">
         <v>0.9467189536793187</v>
@@ -8239,7 +8239,7 @@
         <v>80.78440000000001</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01809723667315755</v>
+        <v>0.01809723667315738</v>
       </c>
       <c r="P78" t="n">
         <v>14618.16802</v>
@@ -8251,13 +8251,13 @@
         <v>9.590020419022714</v>
       </c>
       <c r="S78" t="n">
-        <v>-1.322336668667233</v>
+        <v>-0.8845982523879833</v>
       </c>
       <c r="T78" t="n">
-        <v>2.987138647426081</v>
+        <v>2.987138765499958</v>
       </c>
       <c r="U78" t="n">
-        <v>4.296565431949097</v>
+        <v>4.956656743513188</v>
       </c>
       <c r="V78" t="n">
         <v>4.082610265057138</v>
@@ -8269,10 +8269,10 @@
         <v>2.296747884446797</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.3726571205644666</v>
+        <v>0.3726570024905893</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.7034345680509029</v>
+        <v>0.04334325648681236</v>
       </c>
       <c r="AA78" t="n">
         <v>-0.3112799061079947</v>
@@ -8284,10 +8284,10 @@
         <v>-0.3554500844467965</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF78" t="n">
         <v>0.9467189536793187</v>
@@ -8343,7 +8343,7 @@
         <v>79.6508666666666</v>
       </c>
       <c r="O79" t="n">
-        <v>0.005013896143645447</v>
+        <v>0.005013896143645835</v>
       </c>
       <c r="P79" t="n">
         <v>14761.03608</v>
@@ -8355,13 +8355,13 @@
         <v>9.599746290812853</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.9328429086955822</v>
+        <v>-0.5096903309168717</v>
       </c>
       <c r="T79" t="n">
-        <v>2.651352045344068</v>
+        <v>2.651352265981429</v>
       </c>
       <c r="U79" t="n">
-        <v>3.202276296043291</v>
+        <v>3.785433922766411</v>
       </c>
       <c r="V79" t="n">
         <v>7.757260744732221</v>
@@ -8373,10 +8373,10 @@
         <v>2.137154506822543</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.3116244658007199</v>
+        <v>0.3116242451633591</v>
       </c>
       <c r="Z79" t="n">
-        <v>4.131057196235762</v>
+        <v>3.547899569512642</v>
       </c>
       <c r="AA79" t="n">
         <v>-0.3030696124131111</v>
@@ -8388,10 +8388,10 @@
         <v>0.1663109931774573</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF79" t="n">
         <v>0.9467189536793187</v>
@@ -8447,7 +8447,7 @@
         <v>76.99306666666661</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.02727432667233387</v>
+        <v>-0.02727432667233431</v>
       </c>
       <c r="P80" t="n">
         <v>14942.71438</v>
@@ -8459,13 +8459,13 @@
         <v>9.611979127592313</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.1897878116758943</v>
+        <v>0.2197603622519722</v>
       </c>
       <c r="T80" t="n">
-        <v>2.622053895445004</v>
+        <v>2.622053912966833</v>
       </c>
       <c r="U80" t="n">
-        <v>5.533833536454623</v>
+        <v>5.970720327790678</v>
       </c>
       <c r="V80" t="n">
         <v>3.171954703970258</v>
@@ -8477,10 +8477,10 @@
         <v>2.320342205188334</v>
       </c>
       <c r="Y80" t="n">
-        <v>-0.4141366060059943</v>
+        <v>-0.4141366235278232</v>
       </c>
       <c r="Z80" t="n">
-        <v>2.466166463545377</v>
+        <v>2.029279672209322</v>
       </c>
       <c r="AA80" t="n">
         <v>-0.5794718700172443</v>
@@ -8492,10 +8492,10 @@
         <v>-0.1106466051883337</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF80" t="n">
         <v>0.9467189536793187</v>
@@ -8551,7 +8551,7 @@
         <v>73.4186333333333</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.07203664923744135</v>
+        <v>-0.07203664923744149</v>
       </c>
       <c r="P81" t="n">
         <v>15046.2381</v>
@@ -8563,13 +8563,13 @@
         <v>9.61888327879889</v>
       </c>
       <c r="S81" t="n">
-        <v>0.9399479311639936</v>
+        <v>1.347601033029294</v>
       </c>
       <c r="T81" t="n">
-        <v>2.418294380445818</v>
+        <v>2.418294259117487</v>
       </c>
       <c r="U81" t="n">
-        <v>0.5250064227022352</v>
+        <v>0.5131606108456949</v>
       </c>
       <c r="V81" t="n">
         <v>-12.3663768997941</v>
@@ -8581,10 +8581,10 @@
         <v>1.602486317825206</v>
       </c>
       <c r="Y81" t="n">
-        <v>-0.5876275694809752</v>
+        <v>-0.5876274481526438</v>
       </c>
       <c r="Z81" t="n">
-        <v>4.141660085018712</v>
+        <v>4.153505896875252</v>
       </c>
       <c r="AA81" t="n">
         <v>-1.540549318789033</v>
@@ -8596,10 +8596,10 @@
         <v>-0.02178821782520601</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF81" t="n">
         <v>0.9467189536793187</v>
@@ -8655,7 +8655,7 @@
         <v>69.01729999999991</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.1297059510609424</v>
+        <v>-0.1297059510609428</v>
       </c>
       <c r="P82" t="n">
         <v>15096.6798</v>
@@ -8667,13 +8667,13 @@
         <v>9.622230117830988</v>
       </c>
       <c r="S82" t="n">
-        <v>2.390493036439163</v>
+        <v>2.815525833603537</v>
       </c>
       <c r="T82" t="n">
-        <v>1.491151200788892</v>
+        <v>1.491150534791573</v>
       </c>
       <c r="U82" t="n">
-        <v>8.320707231421226</v>
+        <v>8.346109175823811</v>
       </c>
       <c r="V82" t="n">
         <v>1.068180409154719</v>
@@ -8685,10 +8685,10 @@
         <v>1.521977298365384</v>
       </c>
       <c r="Y82" t="n">
-        <v>-0.3967592732391267</v>
+        <v>-0.3967586072418079</v>
       </c>
       <c r="Z82" t="n">
-        <v>-3.654040723700279</v>
+        <v>-3.679442668102864</v>
       </c>
       <c r="AA82" t="n">
         <v>1.00215799982094</v>
@@ -8700,10 +8700,10 @@
         <v>0.1107882016346162</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF82" t="n">
         <v>0.9467189536793187</v>
@@ -8759,7 +8759,7 @@
         <v>66.9192</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.1557889690297296</v>
+        <v>-0.1557889690297298</v>
       </c>
       <c r="P83" t="n">
         <v>15130.24626</v>
@@ -8771,13 +8771,13 @@
         <v>9.624451082922251</v>
       </c>
       <c r="S83" t="n">
-        <v>3.06816934244881</v>
+        <v>3.551271965441836</v>
       </c>
       <c r="T83" t="n">
-        <v>1.271973962490285</v>
+        <v>1.271973321115802</v>
       </c>
       <c r="U83" t="n">
-        <v>11.17500337047341</v>
+        <v>11.39130171499783</v>
       </c>
       <c r="V83" t="n">
         <v>4.008663625951646</v>
@@ -8789,10 +8789,10 @@
         <v>1.943473800533883</v>
       </c>
       <c r="Y83" t="n">
-        <v>-0.180568101208727</v>
+        <v>-0.1805674598342435</v>
       </c>
       <c r="Z83" t="n">
-        <v>-6.508336862752461</v>
+        <v>-6.724635207276881</v>
       </c>
       <c r="AA83" t="n">
         <v>0.2882755501627319</v>
@@ -8804,10 +8804,10 @@
         <v>0.0638527994661171</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF83" t="n">
         <v>0.9467189536793187</v>
@@ -8863,7 +8863,7 @@
         <v>68.04146666666659</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.1347618712884806</v>
+        <v>-0.1347618712884807</v>
       </c>
       <c r="P84" t="n">
         <v>15203.51969</v>
@@ -8875,13 +8875,13 @@
         <v>9.629282238581455</v>
       </c>
       <c r="S84" t="n">
-        <v>2.548997765710315</v>
+        <v>3.121688887134502</v>
       </c>
       <c r="T84" t="n">
-        <v>1.507708636145419</v>
+        <v>1.50770799364982</v>
       </c>
       <c r="U84" t="n">
-        <v>7.622478404972768</v>
+        <v>7.634413996887262</v>
       </c>
       <c r="V84" t="n">
         <v>1.60402632942986</v>
@@ -8893,10 +8893,10 @@
         <v>1.959176493281677</v>
       </c>
       <c r="Y84" t="n">
-        <v>-0.05711774447578444</v>
+        <v>-0.05711710198018549</v>
       </c>
       <c r="Z84" t="n">
-        <v>-3.622478404972768</v>
+        <v>-3.634413996887262</v>
       </c>
       <c r="AA84" t="n">
         <v>0.3855238315940968</v>
@@ -8908,10 +8908,10 @@
         <v>0.1096406067183229</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE84" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF84" t="n">
         <v>0.9467189536793187</v>
@@ -8967,7 +8967,7 @@
         <v>69.4456</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.1102064566642307</v>
+        <v>-0.1102064566642314</v>
       </c>
       <c r="P85" t="n">
         <v>15305.2707</v>
@@ -8979,13 +8979,13 @@
         <v>9.635952538253481</v>
       </c>
       <c r="S85" t="n">
-        <v>1.927516282110692</v>
+        <v>2.584766338972014</v>
       </c>
       <c r="T85" t="n">
-        <v>1.673649797334321</v>
+        <v>1.673650173057252</v>
       </c>
       <c r="U85" t="n">
-        <v>1.640840378813087</v>
+        <v>1.530894758636082</v>
       </c>
       <c r="V85" t="n">
         <v>2.611168726069427</v>
@@ -8997,10 +8997,10 @@
         <v>2.071866432752023</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.1322223444760615</v>
+        <v>0.1322219687531307</v>
       </c>
       <c r="Z85" t="n">
-        <v>3.692493113465965</v>
+        <v>3.802438733642971</v>
       </c>
       <c r="AA85" t="n">
         <v>0.1330203532561378</v>
@@ -9012,10 +9012,10 @@
         <v>-0.1654579327520227</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE85" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF85" t="n">
         <v>0.9467189536793187</v>
@@ -9071,7 +9071,7 @@
         <v>71.2369333333333</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.08120274046664733</v>
+        <v>-0.08120274046664716</v>
       </c>
       <c r="P86" t="n">
         <v>15403.51652</v>
@@ -9083,13 +9083,13 @@
         <v>9.642351107789411</v>
       </c>
       <c r="S86" t="n">
-        <v>1.197033685216793</v>
+        <v>1.92664115256889</v>
       </c>
       <c r="T86" t="n">
-        <v>1.847823582283186</v>
+        <v>1.847822519934091</v>
       </c>
       <c r="U86" t="n">
-        <v>5.54128409643944</v>
+        <v>5.355987999607497</v>
       </c>
       <c r="V86" t="n">
         <v>0.4742075487143791</v>
@@ -9101,10 +9101,10 @@
         <v>1.879214667231037</v>
       </c>
       <c r="Y86" t="n">
-        <v>-0.4089731099432494</v>
+        <v>-0.4089720475941541</v>
       </c>
       <c r="Z86" t="n">
-        <v>-0.8746175887184924</v>
+        <v>-0.6893214918865498</v>
       </c>
       <c r="AA86" t="n">
         <v>-0.4631654507150427</v>
@@ -9116,10 +9116,10 @@
         <v>0.127545232768963</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF86" t="n">
         <v>0.9467189536793187</v>
@@ -9175,7 +9175,7 @@
         <v>73.03230000000001</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.05329813454413923</v>
+        <v>-0.05329813454413895</v>
       </c>
       <c r="P87" t="n">
         <v>15533.99659</v>
@@ -9187,13 +9187,13 @@
         <v>9.650786229461094</v>
       </c>
       <c r="S87" t="n">
-        <v>0.4802019992738688</v>
+        <v>1.267520238575075</v>
       </c>
       <c r="T87" t="n">
-        <v>2.280435650826386</v>
+        <v>2.280435655346305</v>
       </c>
       <c r="U87" t="n">
-        <v>9.218492115613119</v>
+        <v>8.969362968996172</v>
       </c>
       <c r="V87" t="n">
         <v>-0.413029604510424</v>
@@ -9205,10 +9205,10 @@
         <v>1.912808092403812</v>
       </c>
       <c r="Y87" t="n">
-        <v>-0.4891205209478739</v>
+        <v>-0.4891205254677926</v>
       </c>
       <c r="Z87" t="n">
-        <v>-5.218492115613119</v>
+        <v>-4.969362968996172</v>
       </c>
       <c r="AA87" t="n">
         <v>0.1295192187394998</v>
@@ -9220,10 +9220,10 @@
         <v>-0.03167619240381181</v>
       </c>
       <c r="AD87" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE87" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF87" t="n">
         <v>0.9467189536793187</v>
@@ -9279,7 +9279,7 @@
         <v>74.3656</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.03289353345368085</v>
+        <v>-0.03289353345368096</v>
       </c>
       <c r="P88" t="n">
         <v>15638.9574199999</v>
@@ -9291,13 +9291,13 @@
         <v>9.657520350752025</v>
       </c>
       <c r="S88" t="n">
-        <v>-0.01424512422029702</v>
+        <v>0.8048557051654206</v>
       </c>
       <c r="T88" t="n">
-        <v>1.717146373522215</v>
+        <v>1.717146803891307</v>
       </c>
       <c r="U88" t="n">
-        <v>6.240171538692577</v>
+        <v>6.109404347052986</v>
       </c>
       <c r="V88" t="n">
         <v>1.556955123706472</v>
@@ -9309,10 +9309,10 @@
         <v>1.876317040804132</v>
       </c>
       <c r="Y88" t="n">
-        <v>-0.2898478029150657</v>
+        <v>-0.2898482332841577</v>
       </c>
       <c r="Z88" t="n">
-        <v>-2.906838284832103</v>
+        <v>-2.776071093192512</v>
       </c>
       <c r="AA88" t="n">
         <v>0.4197455559953212</v>
@@ -9324,10 +9324,10 @@
         <v>-0.2955550408041319</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE88" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF88" t="n">
         <v>0.9467189536793187</v>
@@ -9383,7 +9383,7 @@
         <v>74.9299666666666</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.02351918704332068</v>
+        <v>-0.0235191870433209</v>
       </c>
       <c r="P89" t="n">
         <v>15789.3742699999</v>
@@ -9395,13 +9395,13 @@
         <v>9.667092478218736</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.2502493982990537</v>
+        <v>0.578411404759585</v>
       </c>
       <c r="T89" t="n">
-        <v>1.092873483290858</v>
+        <v>1.092873606931715</v>
       </c>
       <c r="U89" t="n">
-        <v>7.529775058120682</v>
+        <v>7.496515946394608</v>
       </c>
       <c r="V89" t="n">
         <v>3.350727462133908</v>
@@ -9413,10 +9413,10 @@
         <v>1.735525122969187</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.03857028119667</v>
+        <v>1.038570157555814</v>
       </c>
       <c r="Z89" t="n">
-        <v>-3.863108311981156</v>
+        <v>-3.829849200255082</v>
       </c>
       <c r="AA89" t="n">
         <v>0.6552593378174367</v>
@@ -9428,10 +9428,10 @@
         <v>-0.04100582296918698</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF89" t="n">
         <v>0.9467189536793187</v>
@@ -9487,7 +9487,7 @@
         <v>75.4472</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.01555321129934129</v>
+        <v>-0.0155532112993419</v>
       </c>
       <c r="P90" t="n">
         <v>15931.95222</v>
@@ -9499,13 +9499,13 @@
         <v>9.676081945301306</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.4855672890459627</v>
+        <v>0.3347243132953096</v>
       </c>
       <c r="T90" t="n">
-        <v>1.415725034511869</v>
+        <v>1.415724646560492</v>
       </c>
       <c r="U90" t="n">
-        <v>8.232697114741027</v>
+        <v>8.296513423308916</v>
       </c>
       <c r="V90" t="n">
         <v>3.781971242137754</v>
@@ -9517,10 +9517,10 @@
         <v>1.839113397201361</v>
       </c>
       <c r="Y90" t="n">
-        <v>-0.3542471891255201</v>
+        <v>-0.3542468011741426</v>
       </c>
       <c r="Z90" t="n">
-        <v>-3.56603060702008</v>
+        <v>-3.629846915587969</v>
       </c>
       <c r="AA90" t="n">
         <v>0.8609589650174065</v>
@@ -9532,10 +9532,10 @@
         <v>0.2092216027986387</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF90" t="n">
         <v>0.9467189536793187</v>
@@ -9591,7 +9591,7 @@
         <v>75.7078666666666</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.01164839911343574</v>
+        <v>-0.01164839911343596</v>
       </c>
       <c r="P91" t="n">
         <v>16101.2166699999</v>
@@ -9603,13 +9603,13 @@
         <v>9.686650117682531</v>
       </c>
       <c r="S91" t="n">
-        <v>-0.6000312658928826</v>
+        <v>0.1926316429440169</v>
       </c>
       <c r="T91" t="n">
-        <v>1.719104801739719</v>
+        <v>1.719105349590728</v>
       </c>
       <c r="U91" t="n">
-        <v>8.520525352660075</v>
+        <v>8.752421172249408</v>
       </c>
       <c r="V91" t="n">
         <v>2.199510488953924</v>
@@ -9621,10 +9621,10 @@
         <v>2.023737656127967</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.04378919322340269</v>
+        <v>0.04378864537239369</v>
       </c>
       <c r="Z91" t="n">
-        <v>-4.187191860381022</v>
+        <v>-4.419087679970355</v>
       </c>
       <c r="AA91" t="n">
         <v>0.9444014471162303</v>
@@ -9636,10 +9636,10 @@
         <v>-0.1296156561279671</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF91" t="n">
         <v>0.9467189536793187</v>
@@ -9707,13 +9707,13 @@
         <v>9.696736324324741</v>
       </c>
       <c r="S92" t="n">
-        <v>-0.7939807502003042</v>
+        <v>-0.04340663485350027</v>
       </c>
       <c r="T92" t="n">
-        <v>1.822126304563478</v>
+        <v>1.822126418609415</v>
       </c>
       <c r="U92" t="n">
-        <v>3.590322705705782</v>
+        <v>3.691367237791356</v>
       </c>
       <c r="V92" t="n">
         <v>2.463333961692506</v>
@@ -9725,10 +9725,10 @@
         <v>1.885095203552027</v>
       </c>
       <c r="Y92" t="n">
-        <v>-0.06696771839564009</v>
+        <v>-0.06696783244157745</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.4096772942942177</v>
+        <v>0.308632762208644</v>
       </c>
       <c r="AA92" t="n">
         <v>0.7107865436908654</v>
@@ -9740,10 +9740,10 @@
         <v>-0.3267847035520273</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF92" t="n">
         <v>0.9467189536793187</v>
@@ -9799,7 +9799,7 @@
         <v>76.8133666666666</v>
       </c>
       <c r="O93" t="n">
-        <v>0.001639002282460389</v>
+        <v>0.001639002282460611</v>
       </c>
       <c r="P93" t="n">
         <v>16351.6132</v>
@@ -9811,13 +9811,13 @@
         <v>9.702081838124831</v>
       </c>
       <c r="S93" t="n">
-        <v>-0.7720731759730566</v>
+        <v>-0.08347191660018101</v>
       </c>
       <c r="T93" t="n">
-        <v>1.55337669697284</v>
+        <v>1.553376770337694</v>
       </c>
       <c r="U93" t="n">
-        <v>5.977238304292895</v>
+        <v>6.129644492036101</v>
       </c>
       <c r="V93" t="n">
         <v>1.237214112478672</v>
@@ -9829,10 +9829,10 @@
         <v>1.610078469051544</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.1941140683932265</v>
+        <v>0.1941139950283723</v>
       </c>
       <c r="Z93" t="n">
-        <v>0.356095187986158</v>
+        <v>0.2036890002429521</v>
       </c>
       <c r="AA93" t="n">
         <v>-0.1336921927031978</v>
@@ -9844,10 +9844,10 @@
         <v>0.03213403094845635</v>
       </c>
       <c r="AD93" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE93" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF93" t="n">
         <v>0.9467189536793187</v>
@@ -9903,7 +9903,7 @@
         <v>77.1506333333333</v>
       </c>
       <c r="O94" t="n">
-        <v>0.005057064041788628</v>
+        <v>0.005057064041788684</v>
       </c>
       <c r="P94" t="n">
         <v>16517.1281099999</v>
@@ -9915,13 +9915,13 @@
         <v>9.712153188742139</v>
       </c>
       <c r="S94" t="n">
-        <v>-0.8076989938890619</v>
+        <v>-0.1790837877376997</v>
       </c>
       <c r="T94" t="n">
-        <v>1.803647897454055</v>
+        <v>1.8036476243106</v>
       </c>
       <c r="U94" t="n">
-        <v>6.346296350231267</v>
+        <v>6.6834428849848</v>
       </c>
       <c r="V94" t="n">
         <v>2.903502093481565</v>
@@ -9933,10 +9933,10 @@
         <v>1.674782604638329</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.2833133584210981</v>
+        <v>0.2833136315645528</v>
       </c>
       <c r="Z94" t="n">
-        <v>-1.012962857952214</v>
+        <v>-1.350109392705748</v>
       </c>
       <c r="AA94" t="n">
         <v>-0.1247263632704843</v>
@@ -9948,10 +9948,10 @@
         <v>-0.09463510463832936</v>
       </c>
       <c r="AD94" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE94" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF94" t="n">
         <v>0.9467189536793187</v>
@@ -10007,7 +10007,7 @@
         <v>77.1976333333333</v>
       </c>
       <c r="O95" t="n">
-        <v>0.004983534055973848</v>
+        <v>0.004983534055973238</v>
       </c>
       <c r="P95" t="n">
         <v>16657.12521</v>
@@ -10019,13 +10019,13 @@
         <v>9.720593344408693</v>
       </c>
       <c r="S95" t="n">
-        <v>-0.7446055209743154</v>
+        <v>-0.1714230414860277</v>
       </c>
       <c r="T95" t="n">
-        <v>1.480874088310121</v>
+        <v>1.480874067973617</v>
       </c>
       <c r="U95" t="n">
-        <v>5.397194906604989</v>
+        <v>5.67726138754943</v>
       </c>
       <c r="V95" t="n">
         <v>-0.1967936188261094</v>
@@ -10037,10 +10037,10 @@
         <v>1.509735776066851</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.2499810572427021</v>
+        <v>0.2499810775792066</v>
       </c>
       <c r="Z95" t="n">
-        <v>-0.3971949066049891</v>
+        <v>-0.6772613875494295</v>
       </c>
       <c r="AA95" t="n">
         <v>-0.2982527018865793</v>
@@ -10052,10 +10052,10 @@
         <v>-0.09409997606685105</v>
       </c>
       <c r="AD95" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE95" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF95" t="n">
         <v>0.9467189536793187</v>
@@ -10111,7 +10111,7 @@
         <v>76.7646</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.00105815278565391</v>
+        <v>-0.001058152785653965</v>
       </c>
       <c r="P96" t="n">
         <v>16822.15735</v>
@@ -10123,13 +10123,13 @@
         <v>9.730452186301012</v>
       </c>
       <c r="S96" t="n">
-        <v>-0.5778927310818199</v>
+        <v>-0.05632122655134903</v>
       </c>
       <c r="T96" t="n">
-        <v>1.212917149318556</v>
+        <v>1.212917103766818</v>
       </c>
       <c r="U96" t="n">
-        <v>4.904927606736592</v>
+        <v>5.36384332185102</v>
       </c>
       <c r="V96" t="n">
         <v>4.211291978505323</v>
@@ -10141,10 +10141,10 @@
         <v>1.49635286225832</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.5104806049708233</v>
+        <v>0.5104806505225614</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.42840588554246</v>
+        <v>0.969490170428033</v>
       </c>
       <c r="AA96" t="n">
         <v>0.1252703563275821</v>
@@ -10156,10 +10156,10 @@
         <v>0.03289633774167999</v>
       </c>
       <c r="AD96" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE96" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF96" t="n">
         <v>0.9467189536793187</v>
@@ -10215,7 +10215,7 @@
         <v>76.74873333333331</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.001664233631805345</v>
+        <v>-0.001664233631805845</v>
       </c>
       <c r="P97" t="n">
         <v>16981.95275</v>
@@ -10227,13 +10227,13 @@
         <v>9.739906456197648</v>
       </c>
       <c r="S97" t="n">
-        <v>-0.5608137719522727</v>
+        <v>-0.08377341743834221</v>
       </c>
       <c r="T97" t="n">
-        <v>1.69059281566241</v>
+        <v>1.690592435992247</v>
       </c>
       <c r="U97" t="n">
-        <v>6.2115641076776</v>
+        <v>6.760470342772582</v>
       </c>
       <c r="V97" t="n">
         <v>0.7184973102139177</v>
@@ -10245,10 +10245,10 @@
         <v>1.552707613207348</v>
       </c>
       <c r="Y97" t="n">
-        <v>-0.3172009085058365</v>
+        <v>-0.3172005288356736</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.7884358923224</v>
+        <v>1.239529657227418</v>
       </c>
       <c r="AA97" t="n">
         <v>-0.3619694523434144</v>
@@ -10260,10 +10260,10 @@
         <v>-0.02644571320734834</v>
       </c>
       <c r="AD97" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE97" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF97" t="n">
         <v>0.9467189536793187</v>
@@ -10319,7 +10319,7 @@
         <v>76.9888666666666</v>
       </c>
       <c r="O98" t="n">
-        <v>0.001171873031485582</v>
+        <v>0.001171873031485415</v>
       </c>
       <c r="P98" t="n">
         <v>17126.82044</v>
@@ -10331,13 +10331,13 @@
         <v>9.748400960546348</v>
       </c>
       <c r="S98" t="n">
-        <v>-0.5447284188430246</v>
+        <v>-0.1083714251887142</v>
       </c>
       <c r="T98" t="n">
-        <v>1.674978871839144</v>
+        <v>1.674979164447281</v>
       </c>
       <c r="U98" t="n">
-        <v>5.30043852016941</v>
+        <v>5.818573972613697</v>
       </c>
       <c r="V98" t="n">
         <v>1.762416635245333</v>
@@ -10349,10 +10349,10 @@
         <v>1.466801060843872</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.7171683687553667</v>
+        <v>0.7171680761472303</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.366227987551538</v>
+        <v>0.8480925351072504</v>
       </c>
       <c r="AA98" t="n">
         <v>0.06885842134759645</v>
@@ -10364,10 +10364,10 @@
         <v>-0.05491526084387188</v>
       </c>
       <c r="AD98" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE98" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF98" t="n">
         <v>0.9467189536793187</v>
@@ -10423,7 +10423,7 @@
         <v>77.0659666666666</v>
       </c>
       <c r="O99" t="n">
-        <v>0.001711914714859653</v>
+        <v>0.001711914714859319</v>
       </c>
       <c r="P99" t="n">
         <v>17242.40312</v>
@@ -10435,13 +10435,13 @@
         <v>9.755126926614876</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.4484984199356181</v>
+        <v>-0.05854972906353768</v>
       </c>
       <c r="T99" t="n">
-        <v>1.529107771780969</v>
+        <v>1.529107676544188</v>
       </c>
       <c r="U99" t="n">
-        <v>2.512904655751354</v>
+        <v>2.907112975970306</v>
       </c>
       <c r="V99" t="n">
         <v>1.069770695440291</v>
@@ -10453,10 +10453,10 @@
         <v>1.41862822826076</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.5099790568865665</v>
+        <v>0.5099791521233474</v>
       </c>
       <c r="Z99" t="n">
-        <v>3.153761851969593</v>
+        <v>2.759553531750642</v>
       </c>
       <c r="AA99" t="n">
         <v>-0.7891758400791749</v>
@@ -10468,10 +10468,10 @@
         <v>0.13171597173924</v>
       </c>
       <c r="AD99" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE99" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF99" t="n">
         <v>0.9467189536793187</v>
@@ -10527,7 +10527,7 @@
         <v>77.16086666666661</v>
       </c>
       <c r="O100" t="n">
-        <v>0.002630717409728867</v>
+        <v>0.002630717409728811</v>
       </c>
       <c r="P100" t="n">
         <v>17406.67876</v>
@@ -10539,13 +10539,13 @@
         <v>9.764609248337736</v>
       </c>
       <c r="S100" t="n">
-        <v>-0.4748573507478133</v>
+        <v>-0.1222183656653612</v>
       </c>
       <c r="T100" t="n">
-        <v>1.815191632926551</v>
+        <v>1.815191171378919</v>
       </c>
       <c r="U100" t="n">
-        <v>5.914717813084962</v>
+        <v>6.315305288917544</v>
       </c>
       <c r="V100" t="n">
         <v>1.025829189716516</v>
@@ -10557,10 +10557,10 @@
         <v>1.532658937333323</v>
       </c>
       <c r="Y100" t="n">
-        <v>-0.4615524392305961</v>
+        <v>-0.461551977682964</v>
       </c>
       <c r="Z100" t="n">
-        <v>-1.58138432080591</v>
+        <v>-1.981971796638491</v>
       </c>
       <c r="AA100" t="n">
         <v>0.8609141241629197</v>
@@ -10572,10 +10572,10 @@
         <v>0.3361416626666771</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE100" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF100" t="n">
         <v>0.9467189536793187</v>
@@ -10631,7 +10631,7 @@
         <v>77.4905666666666</v>
       </c>
       <c r="O101" t="n">
-        <v>0.006719003801235246</v>
+        <v>0.006719003801235079</v>
       </c>
       <c r="P101" t="n">
         <v>17580.20467</v>
@@ -10643,13 +10643,13 @@
         <v>9.774528813378451</v>
       </c>
       <c r="S101" t="n">
-        <v>-0.5346667346647078</v>
+        <v>-0.2138290047583072</v>
       </c>
       <c r="T101" t="n">
-        <v>1.893415249529019</v>
+        <v>1.893415428394918</v>
       </c>
       <c r="U101" t="n">
-        <v>5.899069569564816</v>
+        <v>6.293929791304024</v>
       </c>
       <c r="V101" t="n">
         <v>1.681268799296676</v>
@@ -10661,10 +10661,10 @@
         <v>1.831079877794667</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.4644863150105691</v>
+        <v>0.4644861361446702</v>
       </c>
       <c r="Z101" t="n">
-        <v>-1.232403061843868</v>
+        <v>-1.627263283583077</v>
       </c>
       <c r="AA101" t="n">
         <v>0.3261543216766525</v>
@@ -10676,10 +10676,10 @@
         <v>-0.04594097779466733</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE101" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF101" t="n">
         <v>0.9467189536793187</v>
@@ -10735,7 +10735,7 @@
         <v>77.8305</v>
       </c>
       <c r="O102" t="n">
-        <v>0.01099063854372417</v>
+        <v>0.0109906385437239</v>
       </c>
       <c r="P102" t="n">
         <v>17729.74534</v>
@@ -10747,13 +10747,13 @@
         <v>9.782999035738932</v>
       </c>
       <c r="S102" t="n">
-        <v>-0.6508884897649039</v>
+        <v>-0.3571576519981186</v>
       </c>
       <c r="T102" t="n">
-        <v>1.771829558991073</v>
+        <v>1.771829594450225</v>
       </c>
       <c r="U102" t="n">
-        <v>4.667305610535376</v>
+        <v>5.032778031484654</v>
       </c>
       <c r="V102" t="n">
         <v>2.381602602840338</v>
@@ -10765,10 +10765,10 @@
         <v>1.768418097887517</v>
       </c>
       <c r="Y102" t="n">
-        <v>-0.7655397200919511</v>
+        <v>-0.7655397555511032</v>
       </c>
       <c r="Z102" t="n">
-        <v>1.666027881743677</v>
+        <v>1.300555460794398</v>
       </c>
       <c r="AA102" t="n">
         <v>-0.157047376630437</v>
@@ -10780,10 +10780,10 @@
         <v>-0.02322429788751723</v>
       </c>
       <c r="AD102" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE102" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF102" t="n">
         <v>0.9467189536793187</v>
@@ -10839,7 +10839,7 @@
         <v>78.6885333333333</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02172136223735333</v>
+        <v>0.02172136223735319</v>
       </c>
       <c r="P103" t="n">
         <v>17914.59679</v>
@@ -10851,13 +10851,13 @@
         <v>9.793371122647926</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.8712331804808552</v>
+        <v>-0.6027644323570488</v>
       </c>
       <c r="T103" t="n">
-        <v>1.740079521970671</v>
+        <v>1.740079570343858</v>
       </c>
       <c r="U103" t="n">
-        <v>2.553091437580447</v>
+        <v>2.837871334167824</v>
       </c>
       <c r="V103" t="n">
         <v>1.821346949804831</v>
@@ -10869,10 +10869,10 @@
         <v>1.791451810855699</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.9310489350714444</v>
+        <v>0.9310488866982576</v>
       </c>
       <c r="Z103" t="n">
-        <v>2.446908562419553</v>
+        <v>2.162128665832176</v>
       </c>
       <c r="AA103" t="n">
         <v>0.2122162214350742</v>
@@ -10884,10 +10884,10 @@
         <v>0.03863828914430067</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE103" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF103" t="n">
         <v>0.9467189536793187</v>
@@ -10943,7 +10943,7 @@
         <v>78.89400000000001</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02417813067685781</v>
+        <v>0.02417813067685856</v>
       </c>
       <c r="P104" t="n">
         <v>18074.92195</v>
@@ -10955,13 +10955,13 @@
         <v>9.802280728898694</v>
       </c>
       <c r="S104" t="n">
-        <v>-0.8360378665931718</v>
+        <v>-0.5990502317478157</v>
       </c>
       <c r="T104" t="n">
-        <v>2.250065233549854</v>
+        <v>2.250064886403353</v>
       </c>
       <c r="U104" t="n">
-        <v>2.60699217888973</v>
+        <v>2.85168490512388</v>
       </c>
       <c r="V104" t="n">
         <v>0.6303128943495862</v>
@@ -10973,10 +10973,10 @@
         <v>1.776632396439086</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.7337861496260629</v>
+        <v>0.7337864967725638</v>
       </c>
       <c r="Z104" t="n">
-        <v>1.726341313389323</v>
+        <v>1.481648587155173</v>
       </c>
       <c r="AA104" t="n">
         <v>-0.2157422159185385</v>
@@ -10988,10 +10988,10 @@
         <v>0.1364859035609136</v>
       </c>
       <c r="AD104" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE104" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF104" t="n">
         <v>0.9467189536793187</v>
@@ -11047,7 +11047,7 @@
         <v>79.1348</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02733461087703315</v>
+        <v>0.02733461087703268</v>
       </c>
       <c r="P105" t="n">
         <v>18181.00086</v>
@@ -11059,13 +11059,13 @@
         <v>9.808132419021399</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.7971131676444279</v>
+        <v>-0.5846685623339918</v>
       </c>
       <c r="T105" t="n">
-        <v>2.134282871645508</v>
+        <v>2.134282913571636</v>
       </c>
       <c r="U105" t="n">
-        <v>4.077732182449591</v>
+        <v>4.357918079174028</v>
       </c>
       <c r="V105" t="n">
         <v>-1.901027425952596</v>
@@ -11077,10 +11077,10 @@
         <v>1.750230305325661</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.1711990150544151</v>
+        <v>0.1711989731282864</v>
       </c>
       <c r="Z105" t="n">
-        <v>0.2556013098294621</v>
+        <v>-0.02458458689497522</v>
       </c>
       <c r="AA105" t="n">
         <v>-0.1676704674269824</v>
@@ -11092,10 +11092,10 @@
         <v>0.1019071946743393</v>
       </c>
       <c r="AD105" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF105" t="n">
         <v>0.9467189536793187</v>
@@ -11151,7 +11151,7 @@
         <v>78.13856666666661</v>
       </c>
       <c r="O106" t="n">
-        <v>0.01540787623269591</v>
+        <v>0.01540787623269516</v>
       </c>
       <c r="P106" t="n">
         <v>18260.11029</v>
@@ -11163,13 +11163,13 @@
         <v>9.812474194108812</v>
       </c>
       <c r="S106" t="n">
-        <v>-0.3497525975390358</v>
+        <v>-0.1611786857299756</v>
       </c>
       <c r="T106" t="n">
-        <v>2.282283397339094</v>
+        <v>2.282283540528098</v>
       </c>
       <c r="U106" t="n">
-        <v>4.774836430014937</v>
+        <v>5.029688371467524</v>
       </c>
       <c r="V106" t="n">
         <v>-0.7909013320640945</v>
@@ -11181,10 +11181,10 @@
         <v>1.75406833521657</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.3363838931866838</v>
+        <v>0.3363837499976796</v>
       </c>
       <c r="Z106" t="n">
-        <v>-0.7748364300149371</v>
+        <v>-1.029688371467524</v>
       </c>
       <c r="AA106" t="n">
         <v>0.3233305291010702</v>
@@ -11196,10 +11196,10 @@
         <v>-0.05058103521656965</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE106" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF106" t="n">
         <v>0.9467189536793187</v>
@@ -11255,7 +11255,7 @@
         <v>77.04510000000001</v>
       </c>
       <c r="O107" t="n">
-        <v>0.002471681936490278</v>
+        <v>0.002471681936490056</v>
       </c>
       <c r="P107" t="n">
         <v>18455.77965</v>
@@ -11267,13 +11267,13 @@
         <v>9.823132860575555</v>
       </c>
       <c r="S107" t="n">
-        <v>-0.1650097617651563</v>
+        <v>0.01900854692761231</v>
       </c>
       <c r="T107" t="n">
-        <v>2.099503462001597</v>
+        <v>2.09950261200068</v>
       </c>
       <c r="U107" t="n">
-        <v>3.719496946344695</v>
+        <v>3.938974475568906</v>
       </c>
       <c r="V107" t="n">
         <v>2.474704100816956</v>
@@ -11285,10 +11285,10 @@
         <v>1.78720040143617</v>
       </c>
       <c r="Y107" t="n">
-        <v>-1.447506577629345</v>
+        <v>-1.447505727628427</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.9471695613762523</v>
+        <v>0.7276920321520417</v>
       </c>
       <c r="AA107" t="n">
         <v>0.3646370064433402</v>
@@ -11300,10 +11300,10 @@
         <v>0.03683519856382977</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE107" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF107" t="n">
         <v>0.9467189536793187</v>
@@ -11359,7 +11359,7 @@
         <v>77.14766666666659</v>
       </c>
       <c r="O108" t="n">
-        <v>0.004700934146416813</v>
+        <v>0.004700934146416869</v>
       </c>
       <c r="P108" t="n">
         <v>18596.21773</v>
@@ -11371,13 +11371,13 @@
         <v>9.830713491173853</v>
       </c>
       <c r="S108" t="n">
-        <v>-0.1579547100978477</v>
+        <v>0.02197083306286388</v>
       </c>
       <c r="T108" t="n">
-        <v>2.313308265377704</v>
+        <v>2.313308871209856</v>
       </c>
       <c r="U108" t="n">
-        <v>4.212634917457637</v>
+        <v>4.452650015396757</v>
       </c>
       <c r="V108" t="n">
         <v>-1.042855185396007</v>
@@ -11389,10 +11389,10 @@
         <v>1.808892420806844</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.284103458841908</v>
+        <v>0.284102853009756</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.1206985748214153</v>
+        <v>-0.1193165231177042</v>
       </c>
       <c r="AA108" t="n">
         <v>0.7751530571476475</v>
@@ -11404,10 +11404,10 @@
         <v>0.0297006191931557</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE108" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF108" t="n">
         <v>0.9467189536793187</v>
@@ -11463,7 +11463,7 @@
         <v>76.1438333333333</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.007053348225508849</v>
+        <v>-0.007053348225509681</v>
       </c>
       <c r="P109" t="n">
         <v>18687.60823</v>
@@ -11475,13 +11475,13 @@
         <v>9.835615921688177</v>
       </c>
       <c r="S109" t="n">
-        <v>0.2255078714050279</v>
+        <v>0.3981264406282776</v>
       </c>
       <c r="T109" t="n">
-        <v>2.189078193533202</v>
+        <v>2.189077823179083</v>
       </c>
       <c r="U109" t="n">
-        <v>1.909756219677645</v>
+        <v>2.04181958062324</v>
       </c>
       <c r="V109" t="n">
         <v>0.1793112057619717</v>
@@ -11493,10 +11493,10 @@
         <v>1.757358311524617</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.06990320369672887</v>
+        <v>0.06990357405084779</v>
       </c>
       <c r="Z109" t="n">
-        <v>2.090243780322355</v>
+        <v>1.95818041937676</v>
       </c>
       <c r="AA109" t="n">
         <v>0.2633948165903965</v>
@@ -11508,10 +11508,10 @@
         <v>0.05537291847538284</v>
       </c>
       <c r="AD109" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE109" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF109" t="n">
         <v>0.9467189536793187</v>
@@ -11567,7 +11567,7 @@
         <v>75.6708666666666</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.01165635838466006</v>
+        <v>-0.01165635838465978</v>
       </c>
       <c r="P110" t="n">
         <v>18763.32434</v>
@@ -11579,13 +11579,13 @@
         <v>9.839659410486242</v>
       </c>
       <c r="S110" t="n">
-        <v>0.4610187013793952</v>
+        <v>0.6379272572052116</v>
       </c>
       <c r="T110" t="n">
-        <v>1.958081601903028</v>
+        <v>1.958081108783974</v>
       </c>
       <c r="U110" t="n">
-        <v>3.713195596479202</v>
+        <v>3.62759886976061</v>
       </c>
       <c r="V110" t="n">
         <v>-0.2366183807133388</v>
@@ -11597,10 +11597,10 @@
         <v>1.797134452648759</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.608085980576978</v>
+        <v>0.6080864736960312</v>
       </c>
       <c r="Z110" t="n">
-        <v>-0.3798623426187282</v>
+        <v>-0.294265615900136</v>
       </c>
       <c r="AA110" t="n">
         <v>0.7729320616089559</v>
@@ -11612,10 +11612,10 @@
         <v>-0.1482282126487589</v>
       </c>
       <c r="AD110" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE110" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF110" t="n">
         <v>0.9467189536793187</v>
@@ -11671,7 +11671,7 @@
         <v>75.3767</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.0138024452180634</v>
+        <v>-0.01380244521806401</v>
       </c>
       <c r="P111" t="n">
         <v>18983.64286</v>
@@ -11683,13 +11683,13 @@
         <v>9.851332985254272</v>
       </c>
       <c r="S111" t="n">
-        <v>0.46210124042912</v>
+        <v>0.6541444331291351</v>
       </c>
       <c r="T111" t="n">
-        <v>2.475786533852505</v>
+        <v>2.475786220637976</v>
       </c>
       <c r="U111" t="n">
-        <v>5.820370075941275</v>
+        <v>5.803813617261691</v>
       </c>
       <c r="V111" t="n">
         <v>3.772769356016747</v>
@@ -11701,10 +11701,10 @@
         <v>1.730901402821506</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.3916092575924441</v>
+        <v>0.3916095708069731</v>
       </c>
       <c r="Z111" t="n">
-        <v>-2.487036822080801</v>
+        <v>-2.470480363401217</v>
       </c>
       <c r="AA111" t="n">
         <v>-0.1900716966570233</v>
@@ -11716,10 +11716,10 @@
         <v>-0.007156252821505449</v>
       </c>
       <c r="AD111" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE111" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF111" t="n">
         <v>0.9467189536793187</v>
@@ -11775,7 +11775,7 @@
         <v>75.44346666666659</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.0112323786564712</v>
+        <v>-0.01123237865647181</v>
       </c>
       <c r="P112" t="n">
         <v>19125.0067099999</v>
@@ -11787,13 +11787,13 @@
         <v>9.858752009544343</v>
       </c>
       <c r="S112" t="n">
-        <v>0.3937583226432736</v>
+        <v>0.6014437787877319</v>
       </c>
       <c r="T112" t="n">
-        <v>2.172721720082496</v>
+        <v>2.172721821190199</v>
       </c>
       <c r="U112" t="n">
-        <v>4.758721710542697</v>
+        <v>4.843212777704636</v>
       </c>
       <c r="V112" t="n">
         <v>2.237537676459659</v>
@@ -11805,10 +11805,10 @@
         <v>1.774754733457048</v>
       </c>
       <c r="Y112" t="n">
-        <v>-0.2724806166432256</v>
+        <v>-0.2724807177509279</v>
       </c>
       <c r="Z112" t="n">
-        <v>3.907945274015408</v>
+        <v>3.823454206853469</v>
       </c>
       <c r="AA112" t="n">
         <v>-0.6521530278032293</v>
@@ -11820,10 +11820,10 @@
         <v>-0.04685790345704799</v>
       </c>
       <c r="AD112" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE112" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF112" t="n">
         <v>0.9467189536793187</v>
@@ -11879,7 +11879,7 @@
         <v>75.22799999999999</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.01244606405881576</v>
+        <v>-0.01244606405881588</v>
       </c>
       <c r="P113" t="n">
         <v>19310.5670699999</v>
@@ -11891,13 +11891,13 @@
         <v>9.868407741640768</v>
       </c>
       <c r="S113" t="n">
-        <v>0.3862013144132063</v>
+        <v>0.6060401233706655</v>
       </c>
       <c r="T113" t="n">
-        <v>2.289933498966698</v>
+        <v>2.289933251513403</v>
       </c>
       <c r="U113" t="n">
-        <v>4.117270252590555</v>
+        <v>4.109135004540669</v>
       </c>
       <c r="V113" t="n">
         <v>2.73095088016749</v>
@@ -11909,10 +11909,10 @@
         <v>1.716147249058483</v>
       </c>
       <c r="Y113" t="n">
-        <v>-0.084335157652768</v>
+        <v>-0.08433491019947326</v>
       </c>
       <c r="Z113" t="n">
-        <v>-0.1172702525905551</v>
+        <v>-0.1091350045406694</v>
       </c>
       <c r="AA113" t="n">
         <v>-0.3151341229354534</v>
@@ -11924,10 +11924,10 @@
         <v>0.2375444609415174</v>
       </c>
       <c r="AD113" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE113" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF113" t="n">
         <v>0.9467189536793187</v>
@@ -11983,7 +11983,7 @@
         <v>75.2041333333333</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.01101709204847712</v>
+        <v>-0.01101709204847695</v>
       </c>
       <c r="P114" t="n">
         <v>19502.60772</v>
@@ -11995,13 +11995,13 @@
         <v>9.87830346484165</v>
       </c>
       <c r="S114" t="n">
-        <v>0.3422877617598187</v>
+        <v>0.577559845954173</v>
       </c>
       <c r="T114" t="n">
-        <v>2.625691524012655</v>
+        <v>2.62569182374902</v>
       </c>
       <c r="U114" t="n">
-        <v>5.689812443228751</v>
+        <v>5.615389756961777</v>
       </c>
       <c r="V114" t="n">
         <v>2.419195392986148</v>
@@ -12013,10 +12013,10 @@
         <v>1.943812016218173</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.192324045270706</v>
+        <v>0.192323745534341</v>
       </c>
       <c r="Z114" t="n">
-        <v>-1.689812443228751</v>
+        <v>-1.615389756961777</v>
       </c>
       <c r="AA114" t="n">
         <v>-0.3555933737534014</v>
@@ -12028,10 +12028,10 @@
         <v>-0.05727103621817276</v>
       </c>
       <c r="AD114" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE114" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF114" t="n">
         <v>0.9467189536793187</v>
@@ -12087,7 +12087,7 @@
         <v>76.39433333333329</v>
       </c>
       <c r="O115" t="n">
-        <v>0.006200872419864112</v>
+        <v>0.006200872419864556</v>
       </c>
       <c r="P115" t="n">
         <v>19648.04793</v>
@@ -12099,13 +12099,13 @@
         <v>9.885733270377933</v>
       </c>
       <c r="S115" t="n">
-        <v>-0.04736205093693521</v>
+        <v>0.209954053483863</v>
       </c>
       <c r="T115" t="n">
-        <v>2.537548691562459</v>
+        <v>2.537548872555143</v>
       </c>
       <c r="U115" t="n">
-        <v>6.442024325521403</v>
+        <v>6.431255088860015</v>
       </c>
       <c r="V115" t="n">
         <v>0.5729586692395504</v>
@@ -12117,10 +12117,10 @@
         <v>1.806543396286959</v>
       </c>
       <c r="Y115" t="n">
-        <v>-0.04920474152143095</v>
+        <v>-0.04920492251411579</v>
       </c>
       <c r="Z115" t="n">
-        <v>-2.775357579381876</v>
+        <v>-2.764588342720488</v>
       </c>
       <c r="AA115" t="n">
         <v>-0.1287463934075493</v>
@@ -12132,10 +12132,10 @@
         <v>-0.07634251628695909</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE115" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF115" t="n">
         <v>0.9467189536793187</v>
@@ -12191,7 +12191,7 @@
         <v>76.3397333333333</v>
       </c>
       <c r="O116" t="n">
-        <v>0.006963640892728939</v>
+        <v>0.006963640892728884</v>
       </c>
       <c r="P116" t="n">
         <v>19846.5502099999</v>
@@ -12203,13 +12203,13 @@
         <v>9.895785478064484</v>
       </c>
       <c r="S116" t="n">
-        <v>-0.07501595992570426</v>
+        <v>0.1901198934896039</v>
       </c>
       <c r="T116" t="n">
-        <v>2.728025105516242</v>
+        <v>2.728025204955861</v>
       </c>
       <c r="U116" t="n">
-        <v>7.217692851442331</v>
+        <v>7.19285988716095</v>
       </c>
       <c r="V116" t="n">
         <v>4.628416085706361</v>
@@ -12221,10 +12221,10 @@
         <v>1.812009525995651</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.0529826204364916</v>
+        <v>0.0529825209968724</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.115640163999563</v>
+        <v>1.140473128280944</v>
       </c>
       <c r="AA116" t="n">
         <v>-0.9235232933460349</v>
@@ -12236,10 +12236,10 @@
         <v>0.03186042400434874</v>
       </c>
       <c r="AD116" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE116" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF116" t="n">
         <v>0.9467189536793187</v>
@@ -12295,7 +12295,7 @@
         <v>77.6209333333333</v>
       </c>
       <c r="O117" t="n">
-        <v>0.02471477341717332</v>
+        <v>0.02471477341717293</v>
       </c>
       <c r="P117" t="n">
         <v>20069.21556</v>
@@ -12307,13 +12307,13 @@
         <v>9.906942355824743</v>
       </c>
       <c r="S117" t="n">
-        <v>-0.5411687179221634</v>
+        <v>-0.2611421046468024</v>
       </c>
       <c r="T117" t="n">
-        <v>2.731054772688977</v>
+        <v>2.731054532653058</v>
       </c>
       <c r="U117" t="n">
-        <v>7.853342137039363</v>
+        <v>7.973988417077486</v>
       </c>
       <c r="V117" t="n">
         <v>1.795762440909244</v>
@@ -12325,10 +12325,10 @@
         <v>1.892941135233332</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.03075136592885119</v>
+        <v>0.03075160596477078</v>
       </c>
       <c r="Z117" t="n">
-        <v>-3.853342137039363</v>
+        <v>-3.973988417077486</v>
       </c>
       <c r="AA117" t="n">
         <v>0.4217893701380142</v>
@@ -12340,10 +12340,10 @@
         <v>0.1182458947666678</v>
       </c>
       <c r="AD117" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE117" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF117" t="n">
         <v>0.9467189536793187</v>
@@ -12399,7 +12399,7 @@
         <v>78.2114333333333</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03314325965319664</v>
+        <v>0.033143259653197</v>
       </c>
       <c r="P118" t="n">
         <v>20300.65203</v>
@@ -12411,13 +12411,13 @@
         <v>9.918408284218486</v>
       </c>
       <c r="S118" t="n">
-        <v>-0.7215988580173314</v>
+        <v>-0.4430588069833803</v>
       </c>
       <c r="T118" t="n">
-        <v>2.789052837314919</v>
+        <v>2.789053732390424</v>
       </c>
       <c r="U118" t="n">
-        <v>6.065158572461191</v>
+        <v>6.013989615984437</v>
       </c>
       <c r="V118" t="n">
         <v>2.35753387619282</v>
@@ -12429,10 +12429,10 @@
         <v>1.977229123780168</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.8639405879939734</v>
+        <v>0.8639396929184682</v>
       </c>
       <c r="Z118" t="n">
-        <v>-0.731825080182138</v>
+        <v>-0.6806561237053845</v>
       </c>
       <c r="AA118" t="n">
         <v>0.4926014276117154</v>
@@ -12444,10 +12444,10 @@
         <v>-0.006987513780168042</v>
       </c>
       <c r="AD118" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE118" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF118" t="n">
         <v>0.9467189536793187</v>
@@ -12503,7 +12503,7 @@
         <v>79.1894333333333</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04572276639482808</v>
+        <v>0.04572276639482831</v>
       </c>
       <c r="P119" t="n">
         <v>20551.45563</v>
@@ -12515,13 +12515,13 @@
         <v>9.930687050992443</v>
       </c>
       <c r="S119" t="n">
-        <v>-1.083174619649792</v>
+        <v>-0.8156827743727086</v>
       </c>
       <c r="T119" t="n">
-        <v>2.962608660628413</v>
+        <v>2.962607993234804</v>
       </c>
       <c r="U119" t="n">
-        <v>6.743045997440285</v>
+        <v>6.871061979277796</v>
       </c>
       <c r="V119" t="n">
         <v>2.598852444182296</v>
@@ -12533,10 +12533,10 @@
         <v>1.976290983764568</v>
       </c>
       <c r="Y119" t="n">
-        <v>-0.5456828782430647</v>
+        <v>-0.5456822108494559</v>
       </c>
       <c r="Z119" t="n">
-        <v>-2.743045997440285</v>
+        <v>-2.871061979277796</v>
       </c>
       <c r="AA119" t="n">
         <v>-0.2959864864264121</v>
@@ -12548,10 +12548,10 @@
         <v>0.06961197623543147</v>
       </c>
       <c r="AD119" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE119" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF119" t="n">
         <v>0.9467189536793187</v>
@@ -12607,7 +12607,7 @@
         <v>79.7741333333333</v>
       </c>
       <c r="O120" t="n">
-        <v>0.05216056966212879</v>
+        <v>0.05216056966212909</v>
       </c>
       <c r="P120" t="n">
         <v>20749.39095</v>
@@ -12619,13 +12619,13 @@
         <v>9.940272173420842</v>
       </c>
       <c r="S120" t="n">
-        <v>-1.150643740044201</v>
+        <v>-0.9288679567358959</v>
       </c>
       <c r="T120" t="n">
-        <v>3.422541421454792</v>
+        <v>3.4225422606548</v>
       </c>
       <c r="U120" t="n">
-        <v>7.511611335922741</v>
+        <v>7.562512616470643</v>
       </c>
       <c r="V120" t="n">
         <v>2.703941340147019</v>
@@ -12637,10 +12637,10 @@
         <v>2.029068752248627</v>
       </c>
       <c r="Y120" t="n">
-        <v>-0.1229351595375161</v>
+        <v>-0.1229359987375243</v>
       </c>
       <c r="Z120" t="n">
-        <v>-2.844944828201794</v>
+        <v>-2.895846108749696</v>
       </c>
       <c r="AA120" t="n">
         <v>-0.8533816006468062</v>
@@ -12652,10 +12652,10 @@
         <v>0.1070839077513734</v>
       </c>
       <c r="AD120" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE120" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF120" t="n">
         <v>0.9467189536793187</v>
@@ -12711,7 +12711,7 @@
         <v>79.7555333333333</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04983734759693004</v>
+        <v>0.04983734759693073</v>
       </c>
       <c r="P121" t="n">
         <v>20949.01042</v>
@@ -12723,13 +12723,13 @@
         <v>9.949846688912466</v>
       </c>
       <c r="S121" t="n">
-        <v>-0.9947483861668766</v>
+        <v>-0.8518220022250861</v>
       </c>
       <c r="T121" t="n">
-        <v>3.310871653778441</v>
+        <v>3.310871477677126</v>
       </c>
       <c r="U121" t="n">
-        <v>7.175951108124482</v>
+        <v>7.255094954750446</v>
       </c>
       <c r="V121" t="n">
         <v>0.5219023667182567</v>
@@ -12741,10 +12741,10 @@
         <v>2.069469318596534</v>
       </c>
       <c r="Y121" t="n">
-        <v>-0.3346674471453701</v>
+        <v>-0.3346672710440552</v>
       </c>
       <c r="Z121" t="n">
-        <v>-2.509284600403535</v>
+        <v>-2.588428447029499</v>
       </c>
       <c r="AA121" t="n">
         <v>0.4049243214881046</v>
@@ -12756,10 +12756,10 @@
         <v>0.02187992140346573</v>
       </c>
       <c r="AD121" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE121" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF121" t="n">
         <v>0.9467189536793187</v>
@@ -12815,7 +12815,7 @@
         <v>78.7412666666666</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03383990835209083</v>
+        <v>0.03383990835209155</v>
       </c>
       <c r="P122" t="n">
         <v>21123.41355</v>
@@ -12827,13 +12827,13 @@
         <v>9.958137351180509</v>
       </c>
       <c r="S122" t="n">
-        <v>-0.4615650742105616</v>
+        <v>-0.4332057156876875</v>
       </c>
       <c r="T122" t="n">
-        <v>2.616461015918057</v>
+        <v>2.616461629418995</v>
       </c>
       <c r="U122" t="n">
-        <v>6.423442067442817</v>
+        <v>6.347951091968533</v>
       </c>
       <c r="V122" t="n">
         <v>1.886694599209003</v>
@@ -12845,10 +12845,10 @@
         <v>2.078874648663368</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.04331974843632347</v>
+        <v>0.04331913493538497</v>
       </c>
       <c r="Z122" t="n">
-        <v>-1.423442067442817</v>
+        <v>-1.347951091968533</v>
       </c>
       <c r="AA122" t="n">
         <v>0.3777497079192413</v>
@@ -12860,10 +12860,10 @@
         <v>-0.3867969386633678</v>
       </c>
       <c r="AD122" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE122" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF122" t="n">
         <v>0.9467189536793187</v>
@@ -12919,7 +12919,7 @@
         <v>77.9784333333333</v>
       </c>
       <c r="O123" t="n">
-        <v>0.02047929813409866</v>
+        <v>0.02047929813409821</v>
       </c>
       <c r="P123" t="n">
         <v>21344.73831</v>
@@ -12931,13 +12931,13 @@
         <v>9.968560539102853</v>
       </c>
       <c r="S123" t="n">
-        <v>-0.03702910984832563</v>
+        <v>-0.1244765727237735</v>
       </c>
       <c r="T123" t="n">
-        <v>2.501376803332702</v>
+        <v>2.501376377517007</v>
       </c>
       <c r="U123" t="n">
-        <v>5.016162742526364</v>
+        <v>4.782379542946895</v>
       </c>
       <c r="V123" t="n">
         <v>1.673021646837064</v>
@@ -12949,10 +12949,10 @@
         <v>1.758827671880731</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.1408346387906523</v>
+        <v>0.140835064606347</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.6505037651945837</v>
+        <v>0.8842869647740521</v>
       </c>
       <c r="AA123" t="n">
         <v>-0.16996016224477</v>
@@ -12964,10 +12964,10 @@
         <v>-0.1217742518807314</v>
       </c>
       <c r="AD123" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE123" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF123" t="n">
         <v>0.9467189536793187</v>
@@ -13023,7 +13023,7 @@
         <v>77.6879</v>
       </c>
       <c r="O124" t="n">
-        <v>0.01359484608495087</v>
+        <v>0.01359484608495071</v>
       </c>
       <c r="P124" t="n">
         <v>21525.1693</v>
@@ -13035,13 +13035,13 @@
         <v>9.976978194537939</v>
       </c>
       <c r="S124" t="n">
-        <v>0.3114260418633149</v>
+        <v>0.126737058745242</v>
       </c>
       <c r="T124" t="n">
-        <v>3.112579647221688</v>
+        <v>3.112579342257674</v>
       </c>
       <c r="U124" t="n">
-        <v>6.910785481821023</v>
+        <v>6.735487345281666</v>
       </c>
       <c r="V124" t="n">
         <v>2.281430189030481</v>
@@ -13053,10 +13053,10 @@
         <v>1.708376360344343</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.3834367805190682</v>
+        <v>0.3834370854830822</v>
       </c>
       <c r="Z124" t="n">
-        <v>-2.244118974100076</v>
+        <v>-2.068820837560719</v>
       </c>
       <c r="AA124" t="n">
         <v>-0.1675628190122405</v>
@@ -13068,10 +13068,10 @@
         <v>-0.1479279103443427</v>
       </c>
       <c r="AD124" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE124" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF124" t="n">
         <v>0.9467189536793187</v>
@@ -13127,7 +13127,7 @@
         <v>77.0678333333333</v>
       </c>
       <c r="O125" t="n">
-        <v>0.003097988771499693</v>
+        <v>0.003097988771499527</v>
       </c>
       <c r="P125" t="n">
         <v>21701.77879</v>
@@ -13139,13 +13139,13 @@
         <v>9.98514950805844</v>
       </c>
       <c r="S125" t="n">
-        <v>0.6954842212481269</v>
+        <v>0.4321659431047765</v>
       </c>
       <c r="T125" t="n">
-        <v>2.986471771418488</v>
+        <v>2.986472699852391</v>
       </c>
       <c r="U125" t="n">
-        <v>6.802735293683442</v>
+        <v>6.743635388338497</v>
       </c>
       <c r="V125" t="n">
         <v>3.493189252886931</v>
@@ -13157,10 +13157,10 @@
         <v>1.624519165962608</v>
       </c>
       <c r="Y125" t="n">
-        <v>-0.09628578700162782</v>
+        <v>-0.09628671543553091</v>
       </c>
       <c r="Z125" t="n">
-        <v>-2.136068785962495</v>
+        <v>-2.076968880617549</v>
       </c>
       <c r="AA125" t="n">
         <v>-0.2240743094307001</v>
@@ -13172,10 +13172,10 @@
         <v>0.09000633403739222</v>
       </c>
       <c r="AD125" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE125" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF125" t="n">
         <v>0.9467189536793187</v>
@@ -13231,7 +13231,7 @@
         <v>75.6947</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.01632934159173249</v>
+        <v>-0.01632934159173205</v>
       </c>
       <c r="P126" t="n">
         <v>21910.4794</v>
@@ -13243,13 +13243,13 @@
         <v>9.994720312770038</v>
       </c>
       <c r="S126" t="n">
-        <v>1.303469690574544</v>
+        <v>0.9810790450457201</v>
       </c>
       <c r="T126" t="n">
-        <v>2.68365370275498</v>
+        <v>2.683653077268746</v>
       </c>
       <c r="U126" t="n">
-        <v>11.5175640746114</v>
+        <v>11.53509741996774</v>
       </c>
       <c r="V126" t="n">
         <v>-0.3280933859584547</v>
@@ -13261,10 +13261,10 @@
         <v>1.638276993349974</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.327841236491793</v>
+        <v>1.327841861978027</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.4824359253886001</v>
+        <v>0.464902580032259</v>
       </c>
       <c r="AA126" t="n">
         <v>-0.4336051838014175</v>
@@ -13276,10 +13276,10 @@
         <v>-0.3685018233499739</v>
       </c>
       <c r="AD126" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE126" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF126" t="n">
         <v>0.9467189536793187</v>
@@ -13335,7 +13335,7 @@
         <v>66.26463333333329</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.1471797616823549</v>
+        <v>-0.1471797616823544</v>
       </c>
       <c r="P127" t="n">
         <v>21937.47834</v>
@@ -13347,13 +13347,13 @@
         <v>9.995951792857307</v>
       </c>
       <c r="S127" t="n">
-        <v>4.614958999827364</v>
+        <v>4.223386400171258</v>
       </c>
       <c r="T127" t="n">
-        <v>1.422993939052053</v>
+        <v>1.42299376489311</v>
       </c>
       <c r="U127" t="n">
-        <v>10.60879217275695</v>
+        <v>10.16539712719788</v>
       </c>
       <c r="V127" t="n">
         <v>0.506330894576732</v>
@@ -13365,10 +13365,10 @@
         <v>1.16504346204628</v>
       </c>
       <c r="Y127" t="n">
-        <v>-1.129284108403183e-05</v>
+        <v>-1.111868214187517e-05</v>
       </c>
       <c r="Z127" t="n">
-        <v>3.391207827243051</v>
+        <v>3.834602872802122</v>
       </c>
       <c r="AA127" t="n">
         <v>-2.273723259591063</v>
@@ -13380,10 +13380,10 @@
         <v>0.06682326795371973</v>
       </c>
       <c r="AD127" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE127" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF127" t="n">
         <v>0.9467189536793187</v>
@@ -13439,7 +13439,7 @@
         <v>72.79153333333331</v>
       </c>
       <c r="O128" t="n">
-        <v>-0.05272372280058324</v>
+        <v>-0.05272372280058346</v>
       </c>
       <c r="P128" t="n">
         <v>22236.4685</v>
@@ -13451,13 +13451,13 @@
         <v>10.00948894528835</v>
       </c>
       <c r="S128" t="n">
-        <v>2.14289604015915</v>
+        <v>1.852002418888293</v>
       </c>
       <c r="T128" t="n">
-        <v>2.266283169003444</v>
+        <v>2.266282934518968</v>
       </c>
       <c r="U128" t="n">
-        <v>21.65603673684739</v>
+        <v>21.38535935933996</v>
       </c>
       <c r="V128" t="n">
         <v>4.624274984804257</v>
@@ -13469,10 +13469,10 @@
         <v>1.400423003310226</v>
       </c>
       <c r="Y128" t="n">
-        <v>1.184526718134293e-05</v>
+        <v>1.207975165717912e-05</v>
       </c>
       <c r="Z128" t="n">
-        <v>3.67729723226882</v>
+        <v>3.947974609776249</v>
       </c>
       <c r="AA128" t="n">
         <v>0.08434683674264232</v>
@@ -13484,10 +13484,10 @@
         <v>-0.04942377331022563</v>
       </c>
       <c r="AD128" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE128" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF128" t="n">
         <v>0.9467189536793187</v>
@@ -13543,7 +13543,7 @@
         <v>74.50586666666661</v>
       </c>
       <c r="O129" t="n">
-        <v>-0.02930731673650921</v>
+        <v>-0.02930731673650933</v>
       </c>
       <c r="P129" t="n">
         <v>22496.5728099999</v>
@@ -13555,13 +13555,13 @@
         <v>10.02111825703515</v>
       </c>
       <c r="S129" t="n">
-        <v>1.554115140408882</v>
+        <v>1.287873350038951</v>
       </c>
       <c r="T129" t="n">
-        <v>3.280567585663477</v>
+        <v>3.280568042959807</v>
       </c>
       <c r="U129" t="n">
-        <v>6.361953103652811</v>
+        <v>6.111941315440777</v>
       </c>
       <c r="V129" t="n">
         <v>3.191339652027096</v>
@@ -13573,10 +13573,10 @@
         <v>1.438336260272352</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.09497987268268471</v>
+        <v>0.09497941538635457</v>
       </c>
       <c r="Z129" t="n">
-        <v>3.304713880905294</v>
+        <v>3.554725669117328</v>
       </c>
       <c r="AA129" t="n">
         <v>-0.1173719047518769</v>
@@ -13588,10 +13588,10 @@
         <v>-0.02116588027235178</v>
       </c>
       <c r="AD129" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE129" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF129" t="n">
         <v>0.9467189536793187</v>
@@ -13647,7 +13647,7 @@
         <v>75.11993333333329</v>
       </c>
       <c r="O130" t="n">
-        <v>-0.02099259232997763</v>
+        <v>-0.02099259232997752</v>
       </c>
       <c r="P130" t="n">
         <v>22892.74896</v>
@@ -13659,13 +13659,13 @@
         <v>10.03857550010021</v>
       </c>
       <c r="S130" t="n">
-        <v>1.27886816367259</v>
+        <v>1.025774952049917</v>
       </c>
       <c r="T130" t="n">
-        <v>4.437339981043451</v>
+        <v>4.437339969924004</v>
       </c>
       <c r="U130" t="n">
-        <v>7.698086035485736</v>
+        <v>7.417922641678991</v>
       </c>
       <c r="V130" t="n">
         <v>5.784361816284854</v>
@@ -13677,10 +13677,10 @@
         <v>1.472239963346193</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.296443077757516</v>
+        <v>0.2964430888769627</v>
       </c>
       <c r="Z130" t="n">
-        <v>3.968580949072369</v>
+        <v>4.248744342879115</v>
       </c>
       <c r="AA130" t="n">
         <v>-1.413496860953909</v>
@@ -13692,10 +13692,10 @@
         <v>0.02516363665380661</v>
       </c>
       <c r="AD130" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE130" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF130" t="n">
         <v>0.9467189536793187</v>
@@ -13751,7 +13751,7 @@
         <v>76.7964333333333</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0007249708631995588</v>
+        <v>0.0007249708631997254</v>
       </c>
       <c r="P131" t="n">
         <v>23362.23355</v>
@@ -13763,13 +13763,13 @@
         <v>10.05887604666935</v>
       </c>
       <c r="S131" t="n">
-        <v>0.5276740628750399</v>
+        <v>0.2944082428329208</v>
       </c>
       <c r="T131" t="n">
-        <v>3.419463114949238</v>
+        <v>3.419464599548631</v>
       </c>
       <c r="U131" t="n">
-        <v>33.56572450819939</v>
+        <v>32.78740129720335</v>
       </c>
       <c r="V131" t="n">
         <v>7.543151197334033</v>
@@ -13781,10 +13781,10 @@
         <v>1.716321423961807</v>
       </c>
       <c r="Y131" t="n">
-        <v>-0.11138085548049</v>
+        <v>-0.1113823400798837</v>
       </c>
       <c r="Z131" t="n">
-        <v>14.76760755356818</v>
+        <v>15.54593076456423</v>
       </c>
       <c r="AA131" t="n">
         <v>0.8908264394507839</v>
@@ -13796,10 +13796,10 @@
         <v>-0.1200329139618068</v>
       </c>
       <c r="AD131" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE131" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF131" t="n">
         <v>0.9467189536793187</v>
@@ -13855,7 +13855,7 @@
         <v>77.4717</v>
       </c>
       <c r="O132" t="n">
-        <v>0.009120533922374996</v>
+        <v>0.009120533922375385</v>
       </c>
       <c r="P132" t="n">
         <v>23835.07811</v>
@@ -13867,13 +13867,13 @@
         <v>10.07891364474705</v>
       </c>
       <c r="S132" t="n">
-        <v>0.2951743659268332</v>
+        <v>0.0629068894357428</v>
       </c>
       <c r="T132" t="n">
-        <v>4.492265554089578</v>
+        <v>4.492265488609838</v>
       </c>
       <c r="U132" t="n">
-        <v>24.13350196753714</v>
+        <v>24.33095477847492</v>
       </c>
       <c r="V132" t="n">
         <v>4.909145646965883</v>
@@ -13885,10 +13885,10 @@
         <v>1.705166996668126</v>
       </c>
       <c r="Y132" t="n">
-        <v>1.77275867109278</v>
+        <v>1.772758736572521</v>
       </c>
       <c r="Z132" t="n">
-        <v>-1.800167998420925</v>
+        <v>-1.997620809358711</v>
       </c>
       <c r="AA132" t="n">
         <v>0.186895090026197</v>
@@ -13900,10 +13900,10 @@
         <v>-0.06238107666812653</v>
       </c>
       <c r="AD132" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE132" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF132" t="n">
         <v>0.9467189536793187</v>
@@ -13959,7 +13959,7 @@
         <v>78.30483333333331</v>
       </c>
       <c r="O133" t="n">
-        <v>0.01933156917655587</v>
+        <v>0.01933156917655629</v>
       </c>
       <c r="P133" t="n">
         <v>24377.23643</v>
@@ -13971,13 +13971,13 @@
         <v>10.10140504263154</v>
       </c>
       <c r="S133" t="n">
-        <v>-0.106322865683427</v>
+        <v>-0.3347478537453019</v>
       </c>
       <c r="T133" t="n">
-        <v>5.331046664610906</v>
+        <v>5.331045473996302</v>
       </c>
       <c r="U133" t="n">
-        <v>22.87145719015817</v>
+        <v>23.12643022109394</v>
       </c>
       <c r="V133" t="n">
         <v>8.712778315335193</v>
@@ -13989,10 +13989,10 @@
         <v>1.829223717154703</v>
       </c>
       <c r="Y133" t="n">
-        <v>-0.2285941268360681</v>
+        <v>-0.2285929362214647</v>
       </c>
       <c r="Z133" t="n">
-        <v>-0.8714571901581749</v>
+        <v>-1.126430221093937</v>
       </c>
       <c r="AA133" t="n">
         <v>1.176086595185375</v>
@@ -14004,10 +14004,10 @@
         <v>-0.07024865715470274</v>
       </c>
       <c r="AD133" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE133" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF133" t="n">
         <v>0.9467189536793187</v>
@@ -14063,7 +14063,7 @@
         <v>78.56366666666661</v>
       </c>
       <c r="O134" t="n">
-        <v>0.02217174368534547</v>
+        <v>0.0221717436853455</v>
       </c>
       <c r="P134" t="n">
         <v>25006.12751</v>
@@ -14075,13 +14075,13 @@
         <v>10.12687617421814</v>
       </c>
       <c r="S134" t="n">
-        <v>-0.398443068519612</v>
+        <v>-0.6266654943001909</v>
       </c>
       <c r="T134" t="n">
-        <v>6.004260196146045</v>
+        <v>6.004260380072721</v>
       </c>
       <c r="U134" t="n">
-        <v>26.62165198415596</v>
+        <v>26.98741520473076</v>
       </c>
       <c r="V134" t="n">
         <v>9.349856563357426</v>
@@ -14093,10 +14093,10 @@
         <v>1.999320905826061</v>
       </c>
       <c r="Y134" t="n">
-        <v>-0.9660762549548236</v>
+        <v>-0.9660764388815002</v>
       </c>
       <c r="Z134" t="n">
-        <v>-6.954985953272168</v>
+        <v>-7.320749173846973</v>
       </c>
       <c r="AA134" t="n">
         <v>-0.08065217702048777</v>
@@ -14108,10 +14108,10 @@
         <v>-0.05210449582606058</v>
       </c>
       <c r="AD134" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE134" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF134" t="n">
         <v>0.9467189536793187</v>
@@ -14167,7 +14167,7 @@
         <v>78.86336666666659</v>
       </c>
       <c r="O135" t="n">
-        <v>0.02543743130201737</v>
+        <v>0.02543743130201781</v>
       </c>
       <c r="P135" t="n">
         <v>25713.22344</v>
@@ -14179,13 +14179,13 @@
         <v>10.15476066929706</v>
       </c>
       <c r="S135" t="n">
-        <v>-0.7085812351119606</v>
+        <v>-0.9379901208565208</v>
       </c>
       <c r="T135" t="n">
-        <v>5.818024646719682</v>
+        <v>5.818024645694323</v>
       </c>
       <c r="U135" t="n">
-        <v>31.49896841750106</v>
+        <v>31.60026173566669</v>
       </c>
       <c r="V135" t="n">
         <v>9.548919721116212</v>
@@ -14197,10 +14197,10 @@
         <v>2.109456510231502</v>
       </c>
       <c r="Y135" t="n">
-        <v>-0.06252966587981135</v>
+        <v>-0.06252966485445288</v>
       </c>
       <c r="Z135" t="n">
-        <v>1.167699520731361</v>
+        <v>1.066406202565734</v>
       </c>
       <c r="AA135" t="n">
         <v>0.4220534455135923</v>
@@ -14212,10 +14212,10 @@
         <v>0.2918073097684979</v>
       </c>
       <c r="AD135" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE135" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF135" t="n">
         <v>0.9467189536793187</v>
@@ -14271,7 +14271,7 @@
         <v>78.62430000000001</v>
       </c>
       <c r="O136" t="n">
-        <v>0.02179688598213225</v>
+        <v>0.02179688598213175</v>
       </c>
       <c r="P136" t="n">
         <v>26146.67508</v>
@@ -14283,13 +14283,13 @@
         <v>10.17147731341673</v>
       </c>
       <c r="S136" t="n">
-        <v>-0.6384600337953781</v>
+        <v>-0.884188525246825</v>
       </c>
       <c r="T136" t="n">
-        <v>4.84196429331512</v>
+        <v>4.841963613738533</v>
       </c>
       <c r="U136" t="n">
-        <v>19.44048105957909</v>
+        <v>19.23576500028568</v>
       </c>
       <c r="V136" t="n">
         <v>2.041604788802441</v>
@@ -14301,10 +14301,10 @@
         <v>2.306438728223135</v>
       </c>
       <c r="Y136" t="n">
-        <v>-0.1937518841078445</v>
+        <v>-0.1937512045312575</v>
       </c>
       <c r="Z136" t="n">
-        <v>-1.440481059579092</v>
+        <v>-1.235765000285678</v>
       </c>
       <c r="AA136" t="n">
         <v>0.4087341116213463</v>
@@ -14316,10 +14316,10 @@
         <v>0.05955053177686498</v>
       </c>
       <c r="AD136" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE136" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF136" t="n">
         <v>0.9467189536793187</v>
@@ -14375,7 +14375,7 @@
         <v>77.9240333333333</v>
       </c>
       <c r="O137" t="n">
-        <v>0.01246862472386212</v>
+        <v>0.01246862472386223</v>
       </c>
       <c r="P137" t="n">
         <v>26536.55228</v>
@@ -14387,13 +14387,13 @@
         <v>10.18627839289147</v>
       </c>
       <c r="S137" t="n">
-        <v>-0.3904234942525611</v>
+        <v>-0.6535992216521292</v>
       </c>
       <c r="T137" t="n">
-        <v>4.609890204638146</v>
+        <v>4.609889782614297</v>
       </c>
       <c r="U137" t="n">
-        <v>24.2849910499503</v>
+        <v>24.09929436364164</v>
       </c>
       <c r="V137" t="n">
         <v>4.463732887922107</v>
@@ -14405,10 +14405,10 @@
         <v>2.218908328747139</v>
       </c>
       <c r="Y137" t="n">
-        <v>-0.01507260978571612</v>
+        <v>-0.01507218776186736</v>
       </c>
       <c r="Z137" t="n">
-        <v>-0.6183250190665142</v>
+        <v>-0.4326283327578473</v>
       </c>
       <c r="AA137" t="n">
         <v>-1.171179424925001</v>
@@ -14420,10 +14420,10 @@
         <v>0.0004693612528612334</v>
       </c>
       <c r="AD137" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE137" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF137" t="n">
         <v>0.9467189536793187</v>
@@ -14479,7 +14479,7 @@
         <v>77.6708</v>
       </c>
       <c r="O138" t="n">
-        <v>0.008992084701161751</v>
+        <v>0.008992084701161085</v>
       </c>
       <c r="P138" t="n">
         <v>26927.76916</v>
@@ -14491,13 +14491,13 @@
         <v>10.20091334390424</v>
       </c>
       <c r="S138" t="n">
-        <v>-0.2747146868868811</v>
+        <v>-0.546765158575647</v>
       </c>
       <c r="T138" t="n">
-        <v>4.736679463588969</v>
+        <v>4.736679068343097</v>
       </c>
       <c r="U138" t="n">
-        <v>19.92543427262499</v>
+        <v>19.99784577660811</v>
       </c>
       <c r="V138" t="n">
         <v>4.189069306510516</v>
@@ -14509,10 +14509,10 @@
         <v>2.278799205342392</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.0568184568591068</v>
+        <v>0.05681885210497839</v>
       </c>
       <c r="Z138" t="n">
-        <v>1.574565727375006</v>
+        <v>1.502154223391891</v>
       </c>
       <c r="AA138" t="n">
         <v>-0.4366990713001373</v>
@@ -14524,10 +14524,10 @@
         <v>-0.02017506534239244</v>
       </c>
       <c r="AD138" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE138" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF138" t="n">
         <v>0.9467189536793187</v>
@@ -14583,7 +14583,7 @@
         <v>77.4281</v>
       </c>
       <c r="O139" t="n">
-        <v>0.005744859889103893</v>
+        <v>0.005744859889104281</v>
       </c>
       <c r="P139" t="n">
         <v>27202.53426</v>
@@ -14595,13 +14595,13 @@
         <v>10.21106541926744</v>
       </c>
       <c r="S139" t="n">
-        <v>-0.1065019664522695</v>
+        <v>-0.3870502625874713</v>
       </c>
       <c r="T139" t="n">
-        <v>4.325149910210142</v>
+        <v>4.325151007765009</v>
       </c>
       <c r="U139" t="n">
-        <v>17.3810386425913</v>
+        <v>17.36785193190149</v>
       </c>
       <c r="V139" t="n">
         <v>2.662977427449294</v>
@@ -14613,10 +14613,10 @@
         <v>2.257617803432329</v>
       </c>
       <c r="Y139" t="n">
-        <v>-0.3326027269981164</v>
+        <v>-0.3326038245529839</v>
       </c>
       <c r="Z139" t="n">
-        <v>-3.381038642591296</v>
+        <v>-3.367851931901491</v>
       </c>
       <c r="AA139" t="n">
         <v>0.02241643698613194</v>
@@ -14628,10 +14628,10 @@
         <v>-0.5027210134323292</v>
       </c>
       <c r="AD139" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="AE139" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="AF139" t="n">
         <v>0.9467189536793187</v>
